--- a/INTLINE/data/142/STANOR/07129 The Index of wholesale and retail trade.xlsx
+++ b/INTLINE/data/142/STANOR/07129 The Index of wholesale and retail trade.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="309">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="311">
   <x:si>
     <x:t>07129: The Index of wholesale and retail trade, by industry, contents and month</x:t>
   </x:si>
@@ -842,6 +842,12 @@
     <x:t>2022M02</x:t>
   </x:si>
   <x:si>
+    <x:t>2022M03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022M04</x:t>
+  </x:si>
+  <x:si>
     <x:t>47_ub Retail sale, except of motor vehicles and motorcycles and automotive fuel</x:t>
   </x:si>
   <x:si>
@@ -884,7 +890,7 @@
     <x:t>Value index, unadjusted:</x:t>
   </x:si>
   <x:si>
-    <x:t>20220328 08:00</x:t>
+    <x:t>20220530 08:00</x:t>
   </x:si>
   <x:si>
     <x:t>Value index, calendar adjusted:</x:t>
@@ -1362,21 +1368,21 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:JH102"/>
+  <x:dimension ref="A1:JJ102"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="268" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="1" max="270" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:268">
+    <x:row r="1" spans="1:270">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:268">
+    <x:row r="3" spans="1:270">
       <x:c r="C3" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -2175,13 +2181,19 @@
       <x:c r="JH3" s="2" t="s">
         <x:v>266</x:v>
       </x:c>
-    </x:row>
-    <x:row r="4" spans="1:268">
+      <x:c r="JI3" s="2" t="s">
+        <x:v>267</x:v>
+      </x:c>
+      <x:c r="JJ3" s="2" t="s">
+        <x:v>268</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:270">
       <x:c r="A4" s="2" t="s">
-        <x:v>267</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>268</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="C4" s="3" t="n">
         <x:v>49.2</x:v>
@@ -2981,10 +2993,16 @@
       <x:c r="JH4" s="3" t="n">
         <x:v>106.2</x:v>
       </x:c>
-    </x:row>
-    <x:row r="5" spans="1:268">
+      <x:c r="JI4" s="3" t="n">
+        <x:v>124.1</x:v>
+      </x:c>
+      <x:c r="JJ4" s="3" t="n">
+        <x:v>125.1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:270">
       <x:c r="B5" s="2" t="s">
-        <x:v>269</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="C5" s="3" t="n">
         <x:v>51.7</x:v>
@@ -2993,7 +3011,7 @@
         <x:v>47</x:v>
       </x:c>
       <x:c r="E5" s="3" t="n">
-        <x:v>51.9</x:v>
+        <x:v>51.8</x:v>
       </x:c>
       <x:c r="F5" s="3" t="n">
         <x:v>51</x:v>
@@ -3002,7 +3020,7 @@
         <x:v>60.1</x:v>
       </x:c>
       <x:c r="H5" s="3" t="n">
-        <x:v>57</x:v>
+        <x:v>57.1</x:v>
       </x:c>
       <x:c r="I5" s="3" t="n">
         <x:v>56</x:v>
@@ -3065,10 +3083,10 @@
         <x:v>50.3</x:v>
       </x:c>
       <x:c r="AC5" s="3" t="n">
-        <x:v>56.4</x:v>
+        <x:v>56.5</x:v>
       </x:c>
       <x:c r="AD5" s="3" t="n">
-        <x:v>55.8</x:v>
+        <x:v>55.7</x:v>
       </x:c>
       <x:c r="AE5" s="3" t="n">
         <x:v>63.7</x:v>
@@ -3101,10 +3119,10 @@
         <x:v>52.2</x:v>
       </x:c>
       <x:c r="AO5" s="3" t="n">
-        <x:v>58.3</x:v>
+        <x:v>58.2</x:v>
       </x:c>
       <x:c r="AP5" s="3" t="n">
-        <x:v>58.5</x:v>
+        <x:v>58.6</x:v>
       </x:c>
       <x:c r="AQ5" s="3" t="n">
         <x:v>64.7</x:v>
@@ -3167,7 +3185,7 @@
         <x:v>88.6</x:v>
       </x:c>
       <x:c r="BK5" s="3" t="n">
-        <x:v>61.8</x:v>
+        <x:v>61.7</x:v>
       </x:c>
       <x:c r="BL5" s="3" t="n">
         <x:v>56.4</x:v>
@@ -3176,7 +3194,7 @@
         <x:v>62.4</x:v>
       </x:c>
       <x:c r="BN5" s="3" t="n">
-        <x:v>62.1</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="BO5" s="3" t="n">
         <x:v>68.5</x:v>
@@ -3257,7 +3275,7 @@
         <x:v>83.1</x:v>
       </x:c>
       <x:c r="CO5" s="3" t="n">
-        <x:v>78.6</x:v>
+        <x:v>78.5</x:v>
       </x:c>
       <x:c r="CP5" s="3" t="n">
         <x:v>80.4</x:v>
@@ -3284,7 +3302,7 @@
         <x:v>75.1</x:v>
       </x:c>
       <x:c r="CX5" s="3" t="n">
-        <x:v>74.4</x:v>
+        <x:v>74.3</x:v>
       </x:c>
       <x:c r="CY5" s="3" t="n">
         <x:v>85.9</x:v>
@@ -3308,7 +3326,7 @@
         <x:v>82.3</x:v>
       </x:c>
       <x:c r="DF5" s="3" t="n">
-        <x:v>104.7</x:v>
+        <x:v>104.8</x:v>
       </x:c>
       <x:c r="DG5" s="3" t="n">
         <x:v>74.1</x:v>
@@ -3317,7 +3335,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="DI5" s="3" t="n">
-        <x:v>76.3</x:v>
+        <x:v>76.2</x:v>
       </x:c>
       <x:c r="DJ5" s="3" t="n">
         <x:v>75.9</x:v>
@@ -3371,7 +3389,7 @@
         <x:v>87.5</x:v>
       </x:c>
       <x:c r="EA5" s="3" t="n">
-        <x:v>83.8</x:v>
+        <x:v>83.9</x:v>
       </x:c>
       <x:c r="EB5" s="3" t="n">
         <x:v>86.6</x:v>
@@ -3389,10 +3407,10 @@
         <x:v>72.3</x:v>
       </x:c>
       <x:c r="EG5" s="3" t="n">
-        <x:v>79.7</x:v>
+        <x:v>79.6</x:v>
       </x:c>
       <x:c r="EH5" s="3" t="n">
-        <x:v>79.5</x:v>
+        <x:v>79.6</x:v>
       </x:c>
       <x:c r="EI5" s="3" t="n">
         <x:v>90.5</x:v>
@@ -3431,7 +3449,7 @@
         <x:v>82.5</x:v>
       </x:c>
       <x:c r="EU5" s="3" t="n">
-        <x:v>96</x:v>
+        <x:v>95.9</x:v>
       </x:c>
       <x:c r="EV5" s="3" t="n">
         <x:v>95.6</x:v>
@@ -3464,10 +3482,10 @@
         <x:v>85.3</x:v>
       </x:c>
       <x:c r="FF5" s="3" t="n">
-        <x:v>83.6</x:v>
+        <x:v>83.5</x:v>
       </x:c>
       <x:c r="FG5" s="3" t="n">
-        <x:v>98.4</x:v>
+        <x:v>98.3</x:v>
       </x:c>
       <x:c r="FH5" s="3" t="n">
         <x:v>98.3</x:v>
@@ -3488,7 +3506,7 @@
         <x:v>95.7</x:v>
       </x:c>
       <x:c r="FN5" s="3" t="n">
-        <x:v>120</x:v>
+        <x:v>119.9</x:v>
       </x:c>
       <x:c r="FO5" s="3" t="n">
         <x:v>86.1</x:v>
@@ -3497,10 +3515,10 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="FQ5" s="3" t="n">
-        <x:v>90</x:v>
+        <x:v>89.9</x:v>
       </x:c>
       <x:c r="FR5" s="3" t="n">
-        <x:v>89.4</x:v>
+        <x:v>89.5</x:v>
       </x:c>
       <x:c r="FS5" s="3" t="n">
         <x:v>101.3</x:v>
@@ -3539,7 +3557,7 @@
         <x:v>94.3</x:v>
       </x:c>
       <x:c r="GE5" s="3" t="n">
-        <x:v>103.2</x:v>
+        <x:v>103.1</x:v>
       </x:c>
       <x:c r="GF5" s="3" t="n">
         <x:v>106.5</x:v>
@@ -3563,16 +3581,16 @@
         <x:v>128.2</x:v>
       </x:c>
       <x:c r="GM5" s="3" t="n">
-        <x:v>92.8</x:v>
+        <x:v>92.7</x:v>
       </x:c>
       <x:c r="GN5" s="3" t="n">
-        <x:v>85.4</x:v>
+        <x:v>85.5</x:v>
       </x:c>
       <x:c r="GO5" s="3" t="n">
         <x:v>94.9</x:v>
       </x:c>
       <x:c r="GP5" s="3" t="n">
-        <x:v>94.1</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="GQ5" s="3" t="n">
         <x:v>109</x:v>
@@ -3599,7 +3617,7 @@
         <x:v>128.6</x:v>
       </x:c>
       <x:c r="GY5" s="3" t="n">
-        <x:v>93.4</x:v>
+        <x:v>93.3</x:v>
       </x:c>
       <x:c r="GZ5" s="3" t="n">
         <x:v>88.3</x:v>
@@ -3611,7 +3629,7 @@
         <x:v>96.5</x:v>
       </x:c>
       <x:c r="HC5" s="3" t="n">
-        <x:v>113.3</x:v>
+        <x:v>113.2</x:v>
       </x:c>
       <x:c r="HD5" s="3" t="n">
         <x:v>114.3</x:v>
@@ -3623,7 +3641,7 @@
         <x:v>108.9</x:v>
       </x:c>
       <x:c r="HG5" s="3" t="n">
-        <x:v>101.7</x:v>
+        <x:v>101.8</x:v>
       </x:c>
       <x:c r="HH5" s="3" t="n">
         <x:v>104.8</x:v>
@@ -3641,10 +3659,10 @@
         <x:v>89.8</x:v>
       </x:c>
       <x:c r="HM5" s="3" t="n">
-        <x:v>100.5</x:v>
+        <x:v>100.6</x:v>
       </x:c>
       <x:c r="HN5" s="3" t="n">
-        <x:v>100.4</x:v>
+        <x:v>100.3</x:v>
       </x:c>
       <x:c r="HO5" s="3" t="n">
         <x:v>118.9</x:v>
@@ -3662,7 +3680,7 @@
         <x:v>105.5</x:v>
       </x:c>
       <x:c r="HT5" s="3" t="n">
-        <x:v>107.7</x:v>
+        <x:v>107.8</x:v>
       </x:c>
       <x:c r="HU5" s="3" t="n">
         <x:v>117.3</x:v>
@@ -3683,7 +3701,7 @@
         <x:v>104.5</x:v>
       </x:c>
       <x:c r="IA5" s="3" t="n">
-        <x:v>117.7</x:v>
+        <x:v>117.6</x:v>
       </x:c>
       <x:c r="IB5" s="3" t="n">
         <x:v>117.6</x:v>
@@ -3713,16 +3731,16 @@
         <x:v>95.2</x:v>
       </x:c>
       <x:c r="IK5" s="3" t="n">
-        <x:v>109.6</x:v>
+        <x:v>109.5</x:v>
       </x:c>
       <x:c r="IL5" s="3" t="n">
-        <x:v>115.9</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="IM5" s="3" t="n">
-        <x:v>134.3</x:v>
+        <x:v>134.2</x:v>
       </x:c>
       <x:c r="IN5" s="3" t="n">
-        <x:v>140.4</x:v>
+        <x:v>140.3</x:v>
       </x:c>
       <x:c r="IO5" s="3" t="n">
         <x:v>135.6</x:v>
@@ -3743,19 +3761,19 @@
         <x:v>155.5</x:v>
       </x:c>
       <x:c r="IU5" s="3" t="n">
-        <x:v>114.9</x:v>
+        <x:v>114.8</x:v>
       </x:c>
       <x:c r="IV5" s="3" t="n">
         <x:v>109</x:v>
       </x:c>
       <x:c r="IW5" s="3" t="n">
-        <x:v>124.3</x:v>
+        <x:v>124.4</x:v>
       </x:c>
       <x:c r="IX5" s="3" t="n">
-        <x:v>122.6</x:v>
+        <x:v>122.5</x:v>
       </x:c>
       <x:c r="IY5" s="3" t="n">
-        <x:v>147.4</x:v>
+        <x:v>147.3</x:v>
       </x:c>
       <x:c r="IZ5" s="3" t="n">
         <x:v>146.4</x:v>
@@ -3764,7 +3782,7 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="JB5" s="3" t="n">
-        <x:v>134.7</x:v>
+        <x:v>134.6</x:v>
       </x:c>
       <x:c r="JC5" s="3" t="n">
         <x:v>126.1</x:v>
@@ -3776,18 +3794,24 @@
         <x:v>143.5</x:v>
       </x:c>
       <x:c r="JF5" s="3" t="n">
-        <x:v>159.1</x:v>
+        <x:v>159.2</x:v>
       </x:c>
       <x:c r="JG5" s="3" t="n">
-        <x:v>118.5</x:v>
+        <x:v>118.4</x:v>
       </x:c>
       <x:c r="JH5" s="3" t="n">
         <x:v>110</x:v>
       </x:c>
-    </x:row>
-    <x:row r="6" spans="1:268">
+      <x:c r="JI5" s="3" t="n">
+        <x:v>126.4</x:v>
+      </x:c>
+      <x:c r="JJ5" s="3" t="n">
+        <x:v>125.3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:270">
       <x:c r="B6" s="2" t="s">
-        <x:v>270</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="C6" s="3" t="n">
         <x:v>55</x:v>
@@ -4587,10 +4611,16 @@
       <x:c r="JH6" s="3" t="n">
         <x:v>88.4</x:v>
       </x:c>
-    </x:row>
-    <x:row r="7" spans="1:268">
+      <x:c r="JI6" s="3" t="n">
+        <x:v>103.3</x:v>
+      </x:c>
+      <x:c r="JJ6" s="3" t="n">
+        <x:v>102.9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:270">
       <x:c r="B7" s="2" t="s">
-        <x:v>271</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="C7" s="3" t="n">
         <x:v>66.2</x:v>
@@ -4602,7 +4632,7 @@
         <x:v>66.4</x:v>
       </x:c>
       <x:c r="F7" s="3" t="n">
-        <x:v>66.2</x:v>
+        <x:v>66.3</x:v>
       </x:c>
       <x:c r="G7" s="3" t="n">
         <x:v>68.5</x:v>
@@ -4623,19 +4653,19 @@
         <x:v>66.6</x:v>
       </x:c>
       <x:c r="M7" s="3" t="n">
-        <x:v>65.9</x:v>
+        <x:v>65.8</x:v>
       </x:c>
       <x:c r="N7" s="3" t="n">
         <x:v>68</x:v>
       </x:c>
       <x:c r="O7" s="3" t="n">
-        <x:v>66.7</x:v>
+        <x:v>66.6</x:v>
       </x:c>
       <x:c r="P7" s="3" t="n">
         <x:v>66.9</x:v>
       </x:c>
       <x:c r="Q7" s="3" t="n">
-        <x:v>68</x:v>
+        <x:v>67.9</x:v>
       </x:c>
       <x:c r="R7" s="3" t="n">
         <x:v>66.5</x:v>
@@ -4671,7 +4701,7 @@
         <x:v>70.2</x:v>
       </x:c>
       <x:c r="AC7" s="3" t="n">
-        <x:v>70.2</x:v>
+        <x:v>70.3</x:v>
       </x:c>
       <x:c r="AD7" s="3" t="n">
         <x:v>70.4</x:v>
@@ -4683,10 +4713,10 @@
         <x:v>70.3</x:v>
       </x:c>
       <x:c r="AG7" s="3" t="n">
-        <x:v>69.2</x:v>
+        <x:v>69.3</x:v>
       </x:c>
       <x:c r="AH7" s="3" t="n">
-        <x:v>70.2</x:v>
+        <x:v>70.3</x:v>
       </x:c>
       <x:c r="AI7" s="3" t="n">
         <x:v>71.2</x:v>
@@ -4707,10 +4737,10 @@
         <x:v>72.3</x:v>
       </x:c>
       <x:c r="AO7" s="3" t="n">
-        <x:v>72.3</x:v>
+        <x:v>72.2</x:v>
       </x:c>
       <x:c r="AP7" s="3" t="n">
-        <x:v>73.3</x:v>
+        <x:v>73.4</x:v>
       </x:c>
       <x:c r="AQ7" s="3" t="n">
         <x:v>72.3</x:v>
@@ -4719,7 +4749,7 @@
         <x:v>73.4</x:v>
       </x:c>
       <x:c r="AS7" s="3" t="n">
-        <x:v>73.4</x:v>
+        <x:v>73.5</x:v>
       </x:c>
       <x:c r="AT7" s="3" t="n">
         <x:v>73.6</x:v>
@@ -4743,10 +4773,10 @@
         <x:v>74.2</x:v>
       </x:c>
       <x:c r="BA7" s="3" t="n">
-        <x:v>76</x:v>
+        <x:v>75.9</x:v>
       </x:c>
       <x:c r="BB7" s="3" t="n">
-        <x:v>75.1</x:v>
+        <x:v>75.2</x:v>
       </x:c>
       <x:c r="BC7" s="3" t="n">
         <x:v>74.2</x:v>
@@ -4767,7 +4797,7 @@
         <x:v>75.9</x:v>
       </x:c>
       <x:c r="BI7" s="3" t="n">
-        <x:v>75.7</x:v>
+        <x:v>75.6</x:v>
       </x:c>
       <x:c r="BJ7" s="3" t="n">
         <x:v>76.6</x:v>
@@ -4782,7 +4812,7 @@
         <x:v>76.7</x:v>
       </x:c>
       <x:c r="BN7" s="3" t="n">
-        <x:v>77.5</x:v>
+        <x:v>77.4</x:v>
       </x:c>
       <x:c r="BO7" s="3" t="n">
         <x:v>76.1</x:v>
@@ -4791,10 +4821,10 @@
         <x:v>77.9</x:v>
       </x:c>
       <x:c r="BQ7" s="3" t="n">
-        <x:v>78.7</x:v>
+        <x:v>78.8</x:v>
       </x:c>
       <x:c r="BR7" s="3" t="n">
-        <x:v>78.7</x:v>
+        <x:v>78.6</x:v>
       </x:c>
       <x:c r="BS7" s="3" t="n">
         <x:v>78.3</x:v>
@@ -4815,7 +4845,7 @@
         <x:v>80.1</x:v>
       </x:c>
       <x:c r="BY7" s="3" t="n">
-        <x:v>80.8</x:v>
+        <x:v>80.7</x:v>
       </x:c>
       <x:c r="BZ7" s="3" t="n">
         <x:v>80.1</x:v>
@@ -4836,7 +4866,7 @@
         <x:v>83.2</x:v>
       </x:c>
       <x:c r="CF7" s="3" t="n">
-        <x:v>84.1</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="CG7" s="3" t="n">
         <x:v>84</x:v>
@@ -4857,19 +4887,19 @@
         <x:v>87.9</x:v>
       </x:c>
       <x:c r="CM7" s="3" t="n">
-        <x:v>86.9</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="CN7" s="3" t="n">
         <x:v>88.7</x:v>
       </x:c>
       <x:c r="CO7" s="3" t="n">
-        <x:v>87.8</x:v>
+        <x:v>87.9</x:v>
       </x:c>
       <x:c r="CP7" s="3" t="n">
         <x:v>87.5</x:v>
       </x:c>
       <x:c r="CQ7" s="3" t="n">
-        <x:v>88.9</x:v>
+        <x:v>88.8</x:v>
       </x:c>
       <x:c r="CR7" s="3" t="n">
         <x:v>88.3</x:v>
@@ -4887,13 +4917,13 @@
         <x:v>90.1</x:v>
       </x:c>
       <x:c r="CW7" s="3" t="n">
-        <x:v>89.8</x:v>
+        <x:v>89.9</x:v>
       </x:c>
       <x:c r="CX7" s="3" t="n">
-        <x:v>89.9</x:v>
+        <x:v>89.7</x:v>
       </x:c>
       <x:c r="CY7" s="3" t="n">
-        <x:v>91.4</x:v>
+        <x:v>91.5</x:v>
       </x:c>
       <x:c r="CZ7" s="3" t="n">
         <x:v>89.9</x:v>
@@ -4929,7 +4959,7 @@
         <x:v>88.7</x:v>
       </x:c>
       <x:c r="DK7" s="3" t="n">
-        <x:v>88.6</x:v>
+        <x:v>88.7</x:v>
       </x:c>
       <x:c r="DL7" s="3" t="n">
         <x:v>89.3</x:v>
@@ -4941,7 +4971,7 @@
         <x:v>90.5</x:v>
       </x:c>
       <x:c r="DO7" s="3" t="n">
-        <x:v>89.7</x:v>
+        <x:v>89.6</x:v>
       </x:c>
       <x:c r="DP7" s="3" t="n">
         <x:v>91</x:v>
@@ -4950,7 +4980,7 @@
         <x:v>89.7</x:v>
       </x:c>
       <x:c r="DR7" s="3" t="n">
-        <x:v>90.7</x:v>
+        <x:v>90.6</x:v>
       </x:c>
       <x:c r="DS7" s="3" t="n">
         <x:v>91.2</x:v>
@@ -4959,13 +4989,13 @@
         <x:v>90.3</x:v>
       </x:c>
       <x:c r="DU7" s="3" t="n">
-        <x:v>90.6</x:v>
+        <x:v>90.7</x:v>
       </x:c>
       <x:c r="DV7" s="3" t="n">
-        <x:v>89.3</x:v>
+        <x:v>89.2</x:v>
       </x:c>
       <x:c r="DW7" s="3" t="n">
-        <x:v>89.9</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="DX7" s="3" t="n">
         <x:v>90.4</x:v>
@@ -4977,7 +5007,7 @@
         <x:v>90.8</x:v>
       </x:c>
       <x:c r="EA7" s="3" t="n">
-        <x:v>92.1</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="EB7" s="3" t="n">
         <x:v>92.5</x:v>
@@ -4995,13 +5025,13 @@
         <x:v>92.4</x:v>
       </x:c>
       <x:c r="EG7" s="3" t="n">
-        <x:v>91.4</x:v>
+        <x:v>91.5</x:v>
       </x:c>
       <x:c r="EH7" s="3" t="n">
-        <x:v>92.4</x:v>
+        <x:v>92.5</x:v>
       </x:c>
       <x:c r="EI7" s="3" t="n">
-        <x:v>92.5</x:v>
+        <x:v>92.6</x:v>
       </x:c>
       <x:c r="EJ7" s="3" t="n">
         <x:v>92.1</x:v>
@@ -5019,7 +5049,7 @@
         <x:v>94.6</x:v>
       </x:c>
       <x:c r="EO7" s="3" t="n">
-        <x:v>94.3</x:v>
+        <x:v>94.2</x:v>
       </x:c>
       <x:c r="EP7" s="3" t="n">
         <x:v>94.2</x:v>
@@ -5031,22 +5061,22 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="ES7" s="3" t="n">
-        <x:v>96.1</x:v>
+        <x:v>96.3</x:v>
       </x:c>
       <x:c r="ET7" s="3" t="n">
         <x:v>95.6</x:v>
       </x:c>
       <x:c r="EU7" s="3" t="n">
-        <x:v>97</x:v>
+        <x:v>97.1</x:v>
       </x:c>
       <x:c r="EV7" s="3" t="n">
-        <x:v>96.1</x:v>
+        <x:v>96.2</x:v>
       </x:c>
       <x:c r="EW7" s="3" t="n">
         <x:v>96.3</x:v>
       </x:c>
       <x:c r="EX7" s="3" t="n">
-        <x:v>96.3</x:v>
+        <x:v>96.2</x:v>
       </x:c>
       <x:c r="EY7" s="3" t="n">
         <x:v>97</x:v>
@@ -5067,10 +5097,10 @@
         <x:v>97.9</x:v>
       </x:c>
       <x:c r="FE7" s="3" t="n">
-        <x:v>97.3</x:v>
+        <x:v>97.5</x:v>
       </x:c>
       <x:c r="FF7" s="3" t="n">
-        <x:v>96.2</x:v>
+        <x:v>96.1</x:v>
       </x:c>
       <x:c r="FG7" s="3" t="n">
         <x:v>99.1</x:v>
@@ -5103,10 +5133,10 @@
         <x:v>99.5</x:v>
       </x:c>
       <x:c r="FQ7" s="3" t="n">
-        <x:v>100.2</x:v>
+        <x:v>100.3</x:v>
       </x:c>
       <x:c r="FR7" s="3" t="n">
-        <x:v>100.7</x:v>
+        <x:v>100.6</x:v>
       </x:c>
       <x:c r="FS7" s="3" t="n">
         <x:v>99.7</x:v>
@@ -5133,16 +5163,16 @@
         <x:v>100.6</x:v>
       </x:c>
       <x:c r="GA7" s="3" t="n">
-        <x:v>100.2</x:v>
+        <x:v>100.3</x:v>
       </x:c>
       <x:c r="GB7" s="3" t="n">
         <x:v>100.9</x:v>
       </x:c>
       <x:c r="GC7" s="3" t="n">
-        <x:v>100.7</x:v>
+        <x:v>100.8</x:v>
       </x:c>
       <x:c r="GD7" s="3" t="n">
-        <x:v>103.6</x:v>
+        <x:v>103.5</x:v>
       </x:c>
       <x:c r="GE7" s="3" t="n">
         <x:v>98.8</x:v>
@@ -5160,22 +5190,22 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="GJ7" s="3" t="n">
-        <x:v>100.9</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="GK7" s="3" t="n">
         <x:v>100.3</x:v>
       </x:c>
       <x:c r="GL7" s="3" t="n">
-        <x:v>100.5</x:v>
+        <x:v>100.4</x:v>
       </x:c>
       <x:c r="GM7" s="3" t="n">
         <x:v>101.1</x:v>
       </x:c>
       <x:c r="GN7" s="3" t="n">
+        <x:v>99.6</x:v>
+      </x:c>
+      <x:c r="GO7" s="3" t="n">
         <x:v>99.7</x:v>
-      </x:c>
-      <x:c r="GO7" s="3" t="n">
-        <x:v>99.6</x:v>
       </x:c>
       <x:c r="GP7" s="3" t="n">
         <x:v>98.9</x:v>
@@ -5205,16 +5235,16 @@
         <x:v>98.6</x:v>
       </x:c>
       <x:c r="GY7" s="3" t="n">
-        <x:v>100.4</x:v>
+        <x:v>100.3</x:v>
       </x:c>
       <x:c r="GZ7" s="3" t="n">
         <x:v>102</x:v>
       </x:c>
       <x:c r="HA7" s="3" t="n">
-        <x:v>101.8</x:v>
+        <x:v>101.7</x:v>
       </x:c>
       <x:c r="HB7" s="3" t="n">
-        <x:v>101.3</x:v>
+        <x:v>101.4</x:v>
       </x:c>
       <x:c r="HC7" s="3" t="n">
         <x:v>102.8</x:v>
@@ -5259,7 +5289,7 @@
         <x:v>103.3</x:v>
       </x:c>
       <x:c r="HQ7" s="3" t="n">
-        <x:v>103.6</x:v>
+        <x:v>103.5</x:v>
       </x:c>
       <x:c r="HR7" s="3" t="n">
         <x:v>104.3</x:v>
@@ -5268,7 +5298,7 @@
         <x:v>103.7</x:v>
       </x:c>
       <x:c r="HT7" s="3" t="n">
-        <x:v>103.7</x:v>
+        <x:v>103.8</x:v>
       </x:c>
       <x:c r="HU7" s="3" t="n">
         <x:v>104.7</x:v>
@@ -5283,10 +5313,10 @@
         <x:v>102.9</x:v>
       </x:c>
       <x:c r="HY7" s="3" t="n">
-        <x:v>104</x:v>
+        <x:v>103.8</x:v>
       </x:c>
       <x:c r="HZ7" s="3" t="n">
-        <x:v>105.6</x:v>
+        <x:v>105.7</x:v>
       </x:c>
       <x:c r="IA7" s="3" t="n">
         <x:v>104.4</x:v>
@@ -5301,7 +5331,7 @@
         <x:v>104.8</x:v>
       </x:c>
       <x:c r="IE7" s="3" t="n">
-        <x:v>104.8</x:v>
+        <x:v>104.7</x:v>
       </x:c>
       <x:c r="IF7" s="3" t="n">
         <x:v>104.2</x:v>
@@ -5310,7 +5340,7 @@
         <x:v>105.2</x:v>
       </x:c>
       <x:c r="IH7" s="3" t="n">
-        <x:v>103.4</x:v>
+        <x:v>103.3</x:v>
       </x:c>
       <x:c r="II7" s="3" t="n">
         <x:v>103.4</x:v>
@@ -5319,10 +5349,10 @@
         <x:v>105.5</x:v>
       </x:c>
       <x:c r="IK7" s="3" t="n">
-        <x:v>107</x:v>
+        <x:v>106.7</x:v>
       </x:c>
       <x:c r="IL7" s="3" t="n">
-        <x:v>113</x:v>
+        <x:v>113.2</x:v>
       </x:c>
       <x:c r="IM7" s="3" t="n">
         <x:v>115</x:v>
@@ -5355,10 +5385,10 @@
         <x:v>115.3</x:v>
       </x:c>
       <x:c r="IW7" s="3" t="n">
-        <x:v>116</x:v>
+        <x:v>115.8</x:v>
       </x:c>
       <x:c r="IX7" s="3" t="n">
-        <x:v>116.6</x:v>
+        <x:v>116.7</x:v>
       </x:c>
       <x:c r="IY7" s="3" t="n">
         <x:v>122.8</x:v>
@@ -5367,7 +5397,7 @@
         <x:v>121.9</x:v>
       </x:c>
       <x:c r="JA7" s="3" t="n">
-        <x:v>116.7</x:v>
+        <x:v>116.8</x:v>
       </x:c>
       <x:c r="JB7" s="3" t="n">
         <x:v>112.5</x:v>
@@ -5379,7 +5409,7 @@
         <x:v>114.8</x:v>
       </x:c>
       <x:c r="JE7" s="3" t="n">
-        <x:v>116</x:v>
+        <x:v>115.9</x:v>
       </x:c>
       <x:c r="JF7" s="3" t="n">
         <x:v>112.7</x:v>
@@ -5390,10 +5420,16 @@
       <x:c r="JH7" s="3" t="n">
         <x:v>111.6</x:v>
       </x:c>
-    </x:row>
-    <x:row r="8" spans="1:268">
+      <x:c r="JI7" s="3" t="n">
+        <x:v>115.2</x:v>
+      </x:c>
+      <x:c r="JJ7" s="3" t="n">
+        <x:v>114.2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:270">
       <x:c r="B8" s="2" t="s">
-        <x:v>272</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="C8" s="3" t="n">
         <x:v>60.8</x:v>
@@ -5426,7 +5462,7 @@
         <x:v>66.4</x:v>
       </x:c>
       <x:c r="M8" s="3" t="n">
-        <x:v>66.7</x:v>
+        <x:v>66.6</x:v>
       </x:c>
       <x:c r="N8" s="3" t="n">
         <x:v>89.3</x:v>
@@ -5438,7 +5474,7 @@
         <x:v>56.4</x:v>
       </x:c>
       <x:c r="Q8" s="3" t="n">
-        <x:v>64</x:v>
+        <x:v>63.9</x:v>
       </x:c>
       <x:c r="R8" s="3" t="n">
         <x:v>61.2</x:v>
@@ -5447,7 +5483,7 @@
         <x:v>70.1</x:v>
       </x:c>
       <x:c r="T8" s="3" t="n">
-        <x:v>69.4</x:v>
+        <x:v>69.5</x:v>
       </x:c>
       <x:c r="U8" s="3" t="n">
         <x:v>67.4</x:v>
@@ -5474,10 +5510,10 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="AC8" s="3" t="n">
-        <x:v>65.9</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="AD8" s="3" t="n">
-        <x:v>65</x:v>
+        <x:v>64.9</x:v>
       </x:c>
       <x:c r="AE8" s="3" t="n">
         <x:v>74</x:v>
@@ -5486,7 +5522,7 @@
         <x:v>72.6</x:v>
       </x:c>
       <x:c r="AG8" s="3" t="n">
-        <x:v>68.9</x:v>
+        <x:v>68.8</x:v>
       </x:c>
       <x:c r="AH8" s="3" t="n">
         <x:v>71.9</x:v>
@@ -5495,10 +5531,10 @@
         <x:v>68.5</x:v>
       </x:c>
       <x:c r="AJ8" s="3" t="n">
-        <x:v>71.3</x:v>
+        <x:v>71.2</x:v>
       </x:c>
       <x:c r="AK8" s="3" t="n">
-        <x:v>72.6</x:v>
+        <x:v>72.7</x:v>
       </x:c>
       <x:c r="AL8" s="3" t="n">
         <x:v>94.6</x:v>
@@ -5507,13 +5543,13 @@
         <x:v>65.8</x:v>
       </x:c>
       <x:c r="AN8" s="3" t="n">
-        <x:v>60.6</x:v>
+        <x:v>60.7</x:v>
       </x:c>
       <x:c r="AO8" s="3" t="n">
         <x:v>67.8</x:v>
       </x:c>
       <x:c r="AP8" s="3" t="n">
-        <x:v>67.7</x:v>
+        <x:v>67.8</x:v>
       </x:c>
       <x:c r="AQ8" s="3" t="n">
         <x:v>74.9</x:v>
@@ -5522,7 +5558,7 @@
         <x:v>76.2</x:v>
       </x:c>
       <x:c r="AS8" s="3" t="n">
-        <x:v>73.3</x:v>
+        <x:v>73.2</x:v>
       </x:c>
       <x:c r="AT8" s="3" t="n">
         <x:v>75.5</x:v>
@@ -5543,16 +5579,16 @@
         <x:v>68.7</x:v>
       </x:c>
       <x:c r="AZ8" s="3" t="n">
-        <x:v>62.3</x:v>
+        <x:v>62.2</x:v>
       </x:c>
       <x:c r="BA8" s="3" t="n">
-        <x:v>71.3</x:v>
+        <x:v>71.2</x:v>
       </x:c>
       <x:c r="BB8" s="3" t="n">
-        <x:v>69.3</x:v>
+        <x:v>69.4</x:v>
       </x:c>
       <x:c r="BC8" s="3" t="n">
-        <x:v>76.7</x:v>
+        <x:v>76.6</x:v>
       </x:c>
       <x:c r="BD8" s="3" t="n">
         <x:v>79.3</x:v>
@@ -5573,7 +5609,7 @@
         <x:v>76.3</x:v>
       </x:c>
       <x:c r="BJ8" s="3" t="n">
-        <x:v>100.4</x:v>
+        <x:v>100.5</x:v>
       </x:c>
       <x:c r="BK8" s="3" t="n">
         <x:v>71.1</x:v>
@@ -5621,10 +5657,10 @@
         <x:v>75.5</x:v>
       </x:c>
       <x:c r="BZ8" s="3" t="n">
-        <x:v>73.4</x:v>
+        <x:v>73.5</x:v>
       </x:c>
       <x:c r="CA8" s="3" t="n">
-        <x:v>84.8</x:v>
+        <x:v>84.7</x:v>
       </x:c>
       <x:c r="CB8" s="3" t="n">
         <x:v>86.5</x:v>
@@ -5663,7 +5699,7 @@
         <x:v>89.5</x:v>
       </x:c>
       <x:c r="CN8" s="3" t="n">
-        <x:v>93.1</x:v>
+        <x:v>93.2</x:v>
       </x:c>
       <x:c r="CO8" s="3" t="n">
         <x:v>88.4</x:v>
@@ -5690,10 +5726,10 @@
         <x:v>75.1</x:v>
       </x:c>
       <x:c r="CW8" s="3" t="n">
-        <x:v>83.5</x:v>
+        <x:v>83.6</x:v>
       </x:c>
       <x:c r="CX8" s="3" t="n">
-        <x:v>82.1</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="CY8" s="3" t="n">
         <x:v>94.4</x:v>
@@ -5702,7 +5738,7 @@
         <x:v>94.1</x:v>
       </x:c>
       <x:c r="DA8" s="3" t="n">
-        <x:v>89.8</x:v>
+        <x:v>89.7</x:v>
       </x:c>
       <x:c r="DB8" s="3" t="n">
         <x:v>91.9</x:v>
@@ -5720,7 +5756,7 @@
         <x:v>113.1</x:v>
       </x:c>
       <x:c r="DG8" s="3" t="n">
-        <x:v>81</x:v>
+        <x:v>81.1</x:v>
       </x:c>
       <x:c r="DH8" s="3" t="n">
         <x:v>73.3</x:v>
@@ -5729,13 +5765,13 @@
         <x:v>82.2</x:v>
       </x:c>
       <x:c r="DJ8" s="3" t="n">
-        <x:v>81.1</x:v>
+        <x:v>81.2</x:v>
       </x:c>
       <x:c r="DK8" s="3" t="n">
         <x:v>91.8</x:v>
       </x:c>
       <x:c r="DL8" s="3" t="n">
-        <x:v>93.7</x:v>
+        <x:v>93.6</x:v>
       </x:c>
       <x:c r="DM8" s="3" t="n">
         <x:v>91.4</x:v>
@@ -5768,7 +5804,7 @@
         <x:v>81.5</x:v>
       </x:c>
       <x:c r="DW8" s="3" t="n">
-        <x:v>93.3</x:v>
+        <x:v>93.2</x:v>
       </x:c>
       <x:c r="DX8" s="3" t="n">
         <x:v>94.8</x:v>
@@ -5810,7 +5846,7 @@
         <x:v>96.8</x:v>
       </x:c>
       <x:c r="EK8" s="3" t="n">
-        <x:v>93.9</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="EL8" s="3" t="n">
         <x:v>97.4</x:v>
@@ -5864,7 +5900,7 @@
         <x:v>123.1</x:v>
       </x:c>
       <x:c r="FC8" s="3" t="n">
-        <x:v>90.3</x:v>
+        <x:v>90.2</x:v>
       </x:c>
       <x:c r="FD8" s="3" t="n">
         <x:v>82.2</x:v>
@@ -5921,7 +5957,7 @@
         <x:v>99.9</x:v>
       </x:c>
       <x:c r="FV8" s="3" t="n">
-        <x:v>103</x:v>
+        <x:v>103.1</x:v>
       </x:c>
       <x:c r="FW8" s="3" t="n">
         <x:v>96.7</x:v>
@@ -5936,7 +5972,7 @@
         <x:v>127.6</x:v>
       </x:c>
       <x:c r="GA8" s="3" t="n">
-        <x:v>91.6</x:v>
+        <x:v>91.7</x:v>
       </x:c>
       <x:c r="GB8" s="3" t="n">
         <x:v>84.8</x:v>
@@ -5960,7 +5996,7 @@
         <x:v>103.4</x:v>
       </x:c>
       <x:c r="GI8" s="3" t="n">
-        <x:v>96.3</x:v>
+        <x:v>96.2</x:v>
       </x:c>
       <x:c r="GJ8" s="3" t="n">
         <x:v>99.7</x:v>
@@ -5969,7 +6005,7 @@
         <x:v>103.6</x:v>
       </x:c>
       <x:c r="GL8" s="3" t="n">
-        <x:v>126.7</x:v>
+        <x:v>126.6</x:v>
       </x:c>
       <x:c r="GM8" s="3" t="n">
         <x:v>92.1</x:v>
@@ -5978,7 +6014,7 @@
         <x:v>83.7</x:v>
       </x:c>
       <x:c r="GO8" s="3" t="n">
-        <x:v>93.1</x:v>
+        <x:v>93.2</x:v>
       </x:c>
       <x:c r="GP8" s="3" t="n">
         <x:v>91.1</x:v>
@@ -5999,7 +6035,7 @@
         <x:v>95.9</x:v>
       </x:c>
       <x:c r="GV8" s="3" t="n">
-        <x:v>99.6</x:v>
+        <x:v>99.7</x:v>
       </x:c>
       <x:c r="GW8" s="3" t="n">
         <x:v>104.2</x:v>
@@ -6014,7 +6050,7 @@
         <x:v>85.5</x:v>
       </x:c>
       <x:c r="HA8" s="3" t="n">
-        <x:v>95.3</x:v>
+        <x:v>95.2</x:v>
       </x:c>
       <x:c r="HB8" s="3" t="n">
         <x:v>93.4</x:v>
@@ -6050,10 +6086,10 @@
         <x:v>86.5</x:v>
       </x:c>
       <x:c r="HM8" s="3" t="n">
-        <x:v>96.6</x:v>
+        <x:v>96.7</x:v>
       </x:c>
       <x:c r="HN8" s="3" t="n">
-        <x:v>96.2</x:v>
+        <x:v>96.1</x:v>
       </x:c>
       <x:c r="HO8" s="3" t="n">
         <x:v>113.2</x:v>
@@ -6074,7 +6110,7 @@
         <x:v>101.8</x:v>
       </x:c>
       <x:c r="HU8" s="3" t="n">
-        <x:v>110.3</x:v>
+        <x:v>110.4</x:v>
       </x:c>
       <x:c r="HV8" s="3" t="n">
         <x:v>128</x:v>
@@ -6089,16 +6125,16 @@
         <x:v>97.2</x:v>
       </x:c>
       <x:c r="HZ8" s="3" t="n">
-        <x:v>97.8</x:v>
+        <x:v>97.9</x:v>
       </x:c>
       <x:c r="IA8" s="3" t="n">
-        <x:v>110.5</x:v>
+        <x:v>110.4</x:v>
       </x:c>
       <x:c r="IB8" s="3" t="n">
         <x:v>110.4</x:v>
       </x:c>
       <x:c r="IC8" s="3" t="n">
-        <x:v>106</x:v>
+        <x:v>105.9</x:v>
       </x:c>
       <x:c r="ID8" s="3" t="n">
         <x:v>108.3</x:v>
@@ -6107,7 +6143,7 @@
         <x:v>100.6</x:v>
       </x:c>
       <x:c r="IF8" s="3" t="n">
-        <x:v>101.9</x:v>
+        <x:v>101.8</x:v>
       </x:c>
       <x:c r="IG8" s="3" t="n">
         <x:v>111.2</x:v>
@@ -6119,31 +6155,31 @@
         <x:v>93.9</x:v>
       </x:c>
       <x:c r="IJ8" s="3" t="n">
-        <x:v>88.2</x:v>
+        <x:v>88.1</x:v>
       </x:c>
       <x:c r="IK8" s="3" t="n">
-        <x:v>101</x:v>
+        <x:v>100.9</x:v>
       </x:c>
       <x:c r="IL8" s="3" t="n">
-        <x:v>105.3</x:v>
+        <x:v>105.4</x:v>
       </x:c>
       <x:c r="IM8" s="3" t="n">
         <x:v>122.2</x:v>
       </x:c>
       <x:c r="IN8" s="3" t="n">
-        <x:v>127.9</x:v>
+        <x:v>127.8</x:v>
       </x:c>
       <x:c r="IO8" s="3" t="n">
         <x:v>122.3</x:v>
       </x:c>
       <x:c r="IP8" s="3" t="n">
-        <x:v>118.9</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="IQ8" s="3" t="n">
         <x:v>110.9</x:v>
       </x:c>
       <x:c r="IR8" s="3" t="n">
-        <x:v>114.9</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="IS8" s="3" t="n">
         <x:v>130</x:v>
@@ -6170,19 +6206,19 @@
         <x:v>129.3</x:v>
       </x:c>
       <x:c r="JA8" s="3" t="n">
-        <x:v>117.3</x:v>
+        <x:v>117.4</x:v>
       </x:c>
       <x:c r="JB8" s="3" t="n">
         <x:v>116.1</x:v>
       </x:c>
       <x:c r="JC8" s="3" t="n">
-        <x:v>108.6</x:v>
+        <x:v>108.5</x:v>
       </x:c>
       <x:c r="JD8" s="3" t="n">
         <x:v>111.8</x:v>
       </x:c>
       <x:c r="JE8" s="3" t="n">
-        <x:v>124.4</x:v>
+        <x:v>124.3</x:v>
       </x:c>
       <x:c r="JF8" s="3" t="n">
         <x:v>138.3</x:v>
@@ -6193,25 +6229,31 @@
       <x:c r="JH8" s="3" t="n">
         <x:v>93.3</x:v>
       </x:c>
-    </x:row>
-    <x:row r="9" spans="1:268">
+      <x:c r="JI8" s="3" t="n">
+        <x:v>107.4</x:v>
+      </x:c>
+      <x:c r="JJ8" s="3" t="n">
+        <x:v>105.6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:270">
       <x:c r="B9" s="2" t="s">
-        <x:v>273</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="C9" s="4" t="s">
-        <x:v>274</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>274</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="E9" s="3" t="n">
         <x:v>66.4</x:v>
       </x:c>
       <x:c r="F9" s="3" t="n">
-        <x:v>66.4</x:v>
+        <x:v>66.5</x:v>
       </x:c>
       <x:c r="G9" s="3" t="n">
-        <x:v>67</x:v>
+        <x:v>67.1</x:v>
       </x:c>
       <x:c r="H9" s="3" t="n">
         <x:v>66.7</x:v>
@@ -6235,13 +6277,13 @@
         <x:v>66.8</x:v>
       </x:c>
       <x:c r="O9" s="3" t="n">
-        <x:v>66.9</x:v>
+        <x:v>66.8</x:v>
       </x:c>
       <x:c r="P9" s="3" t="n">
         <x:v>67.2</x:v>
       </x:c>
       <x:c r="Q9" s="3" t="n">
-        <x:v>67.2</x:v>
+        <x:v>67.1</x:v>
       </x:c>
       <x:c r="R9" s="3" t="n">
         <x:v>67.1</x:v>
@@ -6289,13 +6331,13 @@
         <x:v>70.6</x:v>
       </x:c>
       <x:c r="AG9" s="3" t="n">
-        <x:v>70.2</x:v>
+        <x:v>70.3</x:v>
       </x:c>
       <x:c r="AH9" s="3" t="n">
-        <x:v>69.9</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="AI9" s="3" t="n">
-        <x:v>70.2</x:v>
+        <x:v>70.3</x:v>
       </x:c>
       <x:c r="AJ9" s="3" t="n">
         <x:v>71</x:v>
@@ -6325,7 +6367,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="AS9" s="3" t="n">
-        <x:v>73</x:v>
+        <x:v>73.1</x:v>
       </x:c>
       <x:c r="AT9" s="3" t="n">
         <x:v>73.5</x:v>
@@ -6358,7 +6400,7 @@
         <x:v>75.1</x:v>
       </x:c>
       <x:c r="BD9" s="3" t="n">
-        <x:v>75.1</x:v>
+        <x:v>75.2</x:v>
       </x:c>
       <x:c r="BE9" s="3" t="n">
         <x:v>74.9</x:v>
@@ -6373,13 +6415,13 @@
         <x:v>76.1</x:v>
       </x:c>
       <x:c r="BI9" s="3" t="n">
+        <x:v>75.9</x:v>
+      </x:c>
+      <x:c r="BJ9" s="3" t="n">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="BJ9" s="3" t="n">
-        <x:v>76.1</x:v>
-      </x:c>
       <x:c r="BK9" s="3" t="n">
-        <x:v>76.5</x:v>
+        <x:v>76.4</x:v>
       </x:c>
       <x:c r="BL9" s="3" t="n">
         <x:v>77.2</x:v>
@@ -6391,10 +6433,10 @@
         <x:v>77.3</x:v>
       </x:c>
       <x:c r="BO9" s="3" t="n">
-        <x:v>76.8</x:v>
+        <x:v>76.7</x:v>
       </x:c>
       <x:c r="BP9" s="3" t="n">
-        <x:v>77.2</x:v>
+        <x:v>77.1</x:v>
       </x:c>
       <x:c r="BQ9" s="3" t="n">
         <x:v>77.6</x:v>
@@ -6427,7 +6469,7 @@
         <x:v>80.3</x:v>
       </x:c>
       <x:c r="CA9" s="3" t="n">
-        <x:v>81.1</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="CB9" s="3" t="n">
         <x:v>81.6</x:v>
@@ -6445,7 +6487,7 @@
         <x:v>83.4</x:v>
       </x:c>
       <x:c r="CG9" s="3" t="n">
-        <x:v>83.8</x:v>
+        <x:v>83.7</x:v>
       </x:c>
       <x:c r="CH9" s="3" t="n">
         <x:v>84.2</x:v>
@@ -6463,13 +6505,13 @@
         <x:v>86.8</x:v>
       </x:c>
       <x:c r="CM9" s="3" t="n">
-        <x:v>87.1</x:v>
+        <x:v>87.2</x:v>
       </x:c>
       <x:c r="CN9" s="3" t="n">
-        <x:v>87.8</x:v>
+        <x:v>87.9</x:v>
       </x:c>
       <x:c r="CO9" s="3" t="n">
-        <x:v>87.8</x:v>
+        <x:v>87.9</x:v>
       </x:c>
       <x:c r="CP9" s="3" t="n">
         <x:v>88</x:v>
@@ -6481,7 +6523,7 @@
         <x:v>88.2</x:v>
       </x:c>
       <x:c r="CS9" s="3" t="n">
-        <x:v>88.9</x:v>
+        <x:v>88.8</x:v>
       </x:c>
       <x:c r="CT9" s="3" t="n">
         <x:v>88.7</x:v>
@@ -6547,7 +6589,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="DO9" s="3" t="n">
-        <x:v>90.2</x:v>
+        <x:v>90.1</x:v>
       </x:c>
       <x:c r="DP9" s="3" t="n">
         <x:v>90.4</x:v>
@@ -6556,7 +6598,7 @@
         <x:v>90.1</x:v>
       </x:c>
       <x:c r="DR9" s="3" t="n">
-        <x:v>90.5</x:v>
+        <x:v>90.4</x:v>
       </x:c>
       <x:c r="DS9" s="3" t="n">
         <x:v>90.5</x:v>
@@ -6571,7 +6613,7 @@
         <x:v>90.1</x:v>
       </x:c>
       <x:c r="DW9" s="3" t="n">
-        <x:v>89.9</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="DX9" s="3" t="n">
         <x:v>89.9</x:v>
@@ -6583,13 +6625,13 @@
         <x:v>90.9</x:v>
       </x:c>
       <x:c r="EA9" s="3" t="n">
-        <x:v>91.5</x:v>
+        <x:v>91.4</x:v>
       </x:c>
       <x:c r="EB9" s="3" t="n">
         <x:v>91.8</x:v>
       </x:c>
       <x:c r="EC9" s="3" t="n">
-        <x:v>92.8</x:v>
+        <x:v>92.7</x:v>
       </x:c>
       <x:c r="ED9" s="3" t="n">
         <x:v>92.7</x:v>
@@ -6601,19 +6643,19 @@
         <x:v>92.1</x:v>
       </x:c>
       <x:c r="EG9" s="3" t="n">
-        <x:v>91.9</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="EH9" s="3" t="n">
         <x:v>92.1</x:v>
       </x:c>
       <x:c r="EI9" s="3" t="n">
-        <x:v>92.1</x:v>
+        <x:v>92.2</x:v>
       </x:c>
       <x:c r="EJ9" s="3" t="n">
-        <x:v>92.3</x:v>
+        <x:v>92.4</x:v>
       </x:c>
       <x:c r="EK9" s="3" t="n">
-        <x:v>92.4</x:v>
+        <x:v>92.5</x:v>
       </x:c>
       <x:c r="EL9" s="3" t="n">
         <x:v>93</x:v>
@@ -6628,7 +6670,7 @@
         <x:v>94.3</x:v>
       </x:c>
       <x:c r="EP9" s="3" t="n">
-        <x:v>94.4</x:v>
+        <x:v>94.3</x:v>
       </x:c>
       <x:c r="EQ9" s="3" t="n">
         <x:v>94.6</x:v>
@@ -6643,10 +6685,10 @@
         <x:v>95.6</x:v>
       </x:c>
       <x:c r="EU9" s="3" t="n">
-        <x:v>96.2</x:v>
+        <x:v>96.3</x:v>
       </x:c>
       <x:c r="EV9" s="3" t="n">
-        <x:v>96.2</x:v>
+        <x:v>96.3</x:v>
       </x:c>
       <x:c r="EW9" s="3" t="n">
         <x:v>96.5</x:v>
@@ -6673,13 +6715,13 @@
         <x:v>97.6</x:v>
       </x:c>
       <x:c r="FE9" s="3" t="n">
-        <x:v>97.8</x:v>
+        <x:v>97.9</x:v>
       </x:c>
       <x:c r="FF9" s="3" t="n">
-        <x:v>97.1</x:v>
+        <x:v>97.2</x:v>
       </x:c>
       <x:c r="FG9" s="3" t="n">
-        <x:v>97.5</x:v>
+        <x:v>97.6</x:v>
       </x:c>
       <x:c r="FH9" s="3" t="n">
         <x:v>97.8</x:v>
@@ -6745,7 +6787,7 @@
         <x:v>100.6</x:v>
       </x:c>
       <x:c r="GC9" s="3" t="n">
-        <x:v>100.6</x:v>
+        <x:v>100.7</x:v>
       </x:c>
       <x:c r="GD9" s="3" t="n">
         <x:v>101.7</x:v>
@@ -6766,7 +6808,7 @@
         <x:v>100.5</x:v>
       </x:c>
       <x:c r="GJ9" s="3" t="n">
-        <x:v>100.5</x:v>
+        <x:v>100.6</x:v>
       </x:c>
       <x:c r="GK9" s="3" t="n">
         <x:v>100.4</x:v>
@@ -6811,13 +6853,13 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="GY9" s="3" t="n">
-        <x:v>99.8</x:v>
+        <x:v>99.7</x:v>
       </x:c>
       <x:c r="GZ9" s="3" t="n">
         <x:v>100.3</x:v>
       </x:c>
       <x:c r="HA9" s="3" t="n">
-        <x:v>101.4</x:v>
+        <x:v>101.3</x:v>
       </x:c>
       <x:c r="HB9" s="3" t="n">
         <x:v>101.7</x:v>
@@ -6826,7 +6868,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="HD9" s="3" t="n">
-        <x:v>102.4</x:v>
+        <x:v>102.5</x:v>
       </x:c>
       <x:c r="HE9" s="3" t="n">
         <x:v>102.9</x:v>
@@ -6871,13 +6913,13 @@
         <x:v>103.7</x:v>
       </x:c>
       <x:c r="HS9" s="3" t="n">
-        <x:v>103.9</x:v>
+        <x:v>103.8</x:v>
       </x:c>
       <x:c r="HT9" s="3" t="n">
         <x:v>103.9</x:v>
       </x:c>
       <x:c r="HU9" s="3" t="n">
-        <x:v>104</x:v>
+        <x:v>104.1</x:v>
       </x:c>
       <x:c r="HV9" s="3" t="n">
         <x:v>103.8</x:v>
@@ -6892,10 +6934,10 @@
         <x:v>103.8</x:v>
       </x:c>
       <x:c r="HZ9" s="3" t="n">
-        <x:v>104.2</x:v>
+        <x:v>104.1</x:v>
       </x:c>
       <x:c r="IA9" s="3" t="n">
-        <x:v>104.7</x:v>
+        <x:v>104.6</x:v>
       </x:c>
       <x:c r="IB9" s="3" t="n">
         <x:v>104.7</x:v>
@@ -6916,7 +6958,7 @@
         <x:v>104.7</x:v>
       </x:c>
       <x:c r="IH9" s="3" t="n">
-        <x:v>104.3</x:v>
+        <x:v>104.2</x:v>
       </x:c>
       <x:c r="II9" s="3" t="n">
         <x:v>104</x:v>
@@ -6925,16 +6967,16 @@
         <x:v>104.1</x:v>
       </x:c>
       <x:c r="IK9" s="3" t="n">
-        <x:v>105.3</x:v>
+        <x:v>105.2</x:v>
       </x:c>
       <x:c r="IL9" s="3" t="n">
         <x:v>108.5</x:v>
       </x:c>
       <x:c r="IM9" s="3" t="n">
-        <x:v>111.7</x:v>
+        <x:v>111.6</x:v>
       </x:c>
       <x:c r="IN9" s="3" t="n">
-        <x:v>116.2</x:v>
+        <x:v>116.3</x:v>
       </x:c>
       <x:c r="IO9" s="3" t="n">
         <x:v>118.9</x:v>
@@ -6961,22 +7003,22 @@
         <x:v>115.2</x:v>
       </x:c>
       <x:c r="IW9" s="3" t="n">
-        <x:v>115.6</x:v>
+        <x:v>115.5</x:v>
       </x:c>
       <x:c r="IX9" s="3" t="n">
-        <x:v>116</x:v>
+        <x:v>115.9</x:v>
       </x:c>
       <x:c r="IY9" s="3" t="n">
-        <x:v>118.5</x:v>
+        <x:v>118.4</x:v>
       </x:c>
       <x:c r="IZ9" s="3" t="n">
-        <x:v>120.4</x:v>
+        <x:v>120.5</x:v>
       </x:c>
       <x:c r="JA9" s="3" t="n">
         <x:v>120.5</x:v>
       </x:c>
       <x:c r="JB9" s="3" t="n">
-        <x:v>117</x:v>
+        <x:v>117.1</x:v>
       </x:c>
       <x:c r="JC9" s="3" t="n">
         <x:v>114.1</x:v>
@@ -6996,386 +7038,392 @@
       <x:c r="JH9" s="3" t="n">
         <x:v>112.5</x:v>
       </x:c>
-    </x:row>
-    <x:row r="11" spans="1:268">
+      <x:c r="JI9" s="3" t="n">
+        <x:v>113.3</x:v>
+      </x:c>
+      <x:c r="JJ9" s="3" t="n">
+        <x:v>113.7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:270">
       <x:c r="A11" s="5" t="s">
+        <x:v>277</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:270">
+      <x:c r="A12" s="0" t="s">
+        <x:v>278</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:270">
+      <x:c r="A13" s="0" t="s">
+        <x:v>279</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:270">
+      <x:c r="A14" s="0" t="s">
+        <x:v>280</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:270">
+      <x:c r="A17" s="0" t="s">
+        <x:v>281</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:270">
+      <x:c r="A18" s="0" t="s">
+        <x:v>282</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:270">
+      <x:c r="A19" s="0" t="s">
+        <x:v>283</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:270">
+      <x:c r="A20" s="0" t="s">
+        <x:v>284</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:270">
+      <x:c r="A21" s="0" t="s">
+        <x:v>283</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:270">
+      <x:c r="A22" s="0" t="s">
+        <x:v>285</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:270">
+      <x:c r="A23" s="0" t="s">
+        <x:v>283</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:270">
+      <x:c r="A24" s="0" t="s">
+        <x:v>286</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:270">
+      <x:c r="A25" s="0" t="s">
+        <x:v>283</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:270">
+      <x:c r="A26" s="0" t="s">
+        <x:v>287</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:270">
+      <x:c r="A27" s="0" t="s">
+        <x:v>283</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:270">
+      <x:c r="A28" s="0" t="s">
+        <x:v>279</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:270">
+      <x:c r="A29" s="0" t="s">
+        <x:v>283</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:270">
+      <x:c r="A31" s="0" t="s">
+        <x:v>288</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:270">
+      <x:c r="A32" s="0" t="s">
+        <x:v>289</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:270">
+      <x:c r="A34" s="0" t="s">
+        <x:v>290</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:270">
+      <x:c r="A35" s="0" t="s">
+        <x:v>282</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:270">
+      <x:c r="A36" s="0" t="s">
+        <x:v>291</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:270">
+      <x:c r="A37" s="0" t="s">
+        <x:v>292</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:270">
+      <x:c r="A38" s="0" t="s">
+        <x:v>293</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:270">
+      <x:c r="A40" s="0" t="s">
+        <x:v>294</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:270">
+      <x:c r="A41" s="0" t="s">
+        <x:v>295</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:270">
+      <x:c r="A42" s="0" t="s">
+        <x:v>296</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:270">
+      <x:c r="A44" s="0" t="s">
+        <x:v>297</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:270">
+      <x:c r="A45" s="0" t="s">
+        <x:v>298</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:270">
+      <x:c r="A46" s="0" t="s">
+        <x:v>299</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:270">
+      <x:c r="A50" s="0" t="s">
+        <x:v>300</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:270">
+      <x:c r="A52" s="0" t="s">
+        <x:v>301</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:270">
+      <x:c r="A53" s="0" t="s">
+        <x:v>282</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:270">
+      <x:c r="A54" s="0" t="s">
+        <x:v>302</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:270">
+      <x:c r="A55" s="0" t="s">
+        <x:v>284</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:270">
+      <x:c r="A56" s="0" t="s">
+        <x:v>302</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:270">
+      <x:c r="A57" s="0" t="s">
+        <x:v>285</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:270">
+      <x:c r="A58" s="0" t="s">
+        <x:v>302</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:270">
+      <x:c r="A59" s="0" t="s">
+        <x:v>286</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:270">
+      <x:c r="A60" s="0" t="s">
+        <x:v>302</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:270">
+      <x:c r="A61" s="0" t="s">
+        <x:v>287</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:270">
+      <x:c r="A62" s="0" t="s">
+        <x:v>302</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:270">
+      <x:c r="A63" s="0" t="s">
+        <x:v>279</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:270">
+      <x:c r="A64" s="0" t="s">
+        <x:v>302</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:270">
+      <x:c r="A65" s="0" t="s">
+        <x:v>303</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:270">
+      <x:c r="A66" s="0" t="s">
+        <x:v>279</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:270">
+      <x:c r="A67" s="0" t="s">
+        <x:v>304</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68" spans="1:270">
+      <x:c r="A68" s="0" t="s">
+        <x:v>270</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69" spans="1:270">
+      <x:c r="A69" s="0" t="s">
+        <x:v>305</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70" spans="1:270">
+      <x:c r="A70" s="0" t="s">
+        <x:v>271</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71" spans="1:270">
+      <x:c r="A71" s="0" t="s">
+        <x:v>305</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72" spans="1:270">
+      <x:c r="A72" s="0" t="s">
+        <x:v>272</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73" spans="1:270">
+      <x:c r="A73" s="0" t="s">
+        <x:v>305</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74" spans="1:270">
+      <x:c r="A74" s="0" t="s">
+        <x:v>273</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75" spans="1:270">
+      <x:c r="A75" s="0" t="s">
+        <x:v>305</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76" spans="1:270">
+      <x:c r="A76" s="0" t="s">
+        <x:v>274</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77" spans="1:270">
+      <x:c r="A77" s="0" t="s">
+        <x:v>305</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78" spans="1:270">
+      <x:c r="A78" s="0" t="s">
         <x:v>275</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:268">
-      <x:c r="A12" s="0" t="s">
-        <x:v>276</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:268">
-      <x:c r="A13" s="0" t="s">
-        <x:v>277</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:268">
-      <x:c r="A14" s="0" t="s">
-        <x:v>278</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:268">
-      <x:c r="A17" s="0" t="s">
+    <x:row r="79" spans="1:270">
+      <x:c r="A79" s="0" t="s">
+        <x:v>305</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81" spans="1:270">
+      <x:c r="A81" s="0" t="s">
+        <x:v>282</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82" spans="1:270">
+      <x:c r="A82" s="0" t="s">
+        <x:v>306</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83" spans="1:270">
+      <x:c r="A83" s="0" t="s">
+        <x:v>284</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84" spans="1:270">
+      <x:c r="A84" s="0" t="s">
+        <x:v>306</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85" spans="1:270">
+      <x:c r="A85" s="0" t="s">
+        <x:v>285</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86" spans="1:270">
+      <x:c r="A86" s="0" t="s">
+        <x:v>306</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87" spans="1:270">
+      <x:c r="A87" s="0" t="s">
+        <x:v>286</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88" spans="1:270">
+      <x:c r="A88" s="0" t="s">
+        <x:v>306</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89" spans="1:270">
+      <x:c r="A89" s="0" t="s">
+        <x:v>287</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90" spans="1:270">
+      <x:c r="A90" s="0" t="s">
+        <x:v>306</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91" spans="1:270">
+      <x:c r="A91" s="0" t="s">
         <x:v>279</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:268">
-      <x:c r="A18" s="0" t="s">
-        <x:v>280</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:268">
-      <x:c r="A19" s="0" t="s">
-        <x:v>281</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:268">
-      <x:c r="A20" s="0" t="s">
-        <x:v>282</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:268">
-      <x:c r="A21" s="0" t="s">
-        <x:v>281</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:268">
-      <x:c r="A22" s="0" t="s">
-        <x:v>283</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:268">
-      <x:c r="A23" s="0" t="s">
-        <x:v>281</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:268">
-      <x:c r="A24" s="0" t="s">
-        <x:v>284</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="1:268">
-      <x:c r="A25" s="0" t="s">
-        <x:v>281</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="1:268">
-      <x:c r="A26" s="0" t="s">
-        <x:v>285</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="1:268">
-      <x:c r="A27" s="0" t="s">
-        <x:v>281</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="28" spans="1:268">
-      <x:c r="A28" s="0" t="s">
-        <x:v>277</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="1:268">
-      <x:c r="A29" s="0" t="s">
-        <x:v>281</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="31" spans="1:268">
-      <x:c r="A31" s="0" t="s">
-        <x:v>286</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="32" spans="1:268">
-      <x:c r="A32" s="0" t="s">
-        <x:v>287</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="34" spans="1:268">
-      <x:c r="A34" s="0" t="s">
-        <x:v>288</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="35" spans="1:268">
-      <x:c r="A35" s="0" t="s">
-        <x:v>280</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="36" spans="1:268">
-      <x:c r="A36" s="0" t="s">
-        <x:v>289</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="37" spans="1:268">
-      <x:c r="A37" s="0" t="s">
-        <x:v>290</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="38" spans="1:268">
-      <x:c r="A38" s="0" t="s">
-        <x:v>291</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="40" spans="1:268">
-      <x:c r="A40" s="0" t="s">
-        <x:v>292</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="41" spans="1:268">
-      <x:c r="A41" s="0" t="s">
-        <x:v>293</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="42" spans="1:268">
-      <x:c r="A42" s="0" t="s">
-        <x:v>294</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="44" spans="1:268">
-      <x:c r="A44" s="0" t="s">
-        <x:v>295</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="45" spans="1:268">
-      <x:c r="A45" s="0" t="s">
-        <x:v>296</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="46" spans="1:268">
-      <x:c r="A46" s="0" t="s">
-        <x:v>297</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="50" spans="1:268">
-      <x:c r="A50" s="0" t="s">
-        <x:v>298</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="52" spans="1:268">
-      <x:c r="A52" s="0" t="s">
-        <x:v>299</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="53" spans="1:268">
-      <x:c r="A53" s="0" t="s">
-        <x:v>280</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="54" spans="1:268">
-      <x:c r="A54" s="0" t="s">
-        <x:v>300</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="55" spans="1:268">
-      <x:c r="A55" s="0" t="s">
-        <x:v>282</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="56" spans="1:268">
-      <x:c r="A56" s="0" t="s">
-        <x:v>300</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="57" spans="1:268">
-      <x:c r="A57" s="0" t="s">
-        <x:v>283</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="58" spans="1:268">
-      <x:c r="A58" s="0" t="s">
-        <x:v>300</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="59" spans="1:268">
-      <x:c r="A59" s="0" t="s">
-        <x:v>284</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="60" spans="1:268">
-      <x:c r="A60" s="0" t="s">
-        <x:v>300</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="61" spans="1:268">
-      <x:c r="A61" s="0" t="s">
-        <x:v>285</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="62" spans="1:268">
-      <x:c r="A62" s="0" t="s">
-        <x:v>300</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="63" spans="1:268">
-      <x:c r="A63" s="0" t="s">
-        <x:v>277</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="64" spans="1:268">
-      <x:c r="A64" s="0" t="s">
-        <x:v>300</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="65" spans="1:268">
-      <x:c r="A65" s="0" t="s">
-        <x:v>301</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="66" spans="1:268">
-      <x:c r="A66" s="0" t="s">
-        <x:v>277</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="67" spans="1:268">
-      <x:c r="A67" s="0" t="s">
-        <x:v>302</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="68" spans="1:268">
-      <x:c r="A68" s="0" t="s">
-        <x:v>268</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="69" spans="1:268">
-      <x:c r="A69" s="0" t="s">
-        <x:v>303</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="70" spans="1:268">
-      <x:c r="A70" s="0" t="s">
-        <x:v>269</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="71" spans="1:268">
-      <x:c r="A71" s="0" t="s">
-        <x:v>303</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="72" spans="1:268">
-      <x:c r="A72" s="0" t="s">
-        <x:v>270</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="73" spans="1:268">
-      <x:c r="A73" s="0" t="s">
-        <x:v>303</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="74" spans="1:268">
-      <x:c r="A74" s="0" t="s">
-        <x:v>271</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="75" spans="1:268">
-      <x:c r="A75" s="0" t="s">
-        <x:v>303</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="76" spans="1:268">
-      <x:c r="A76" s="0" t="s">
-        <x:v>272</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="77" spans="1:268">
-      <x:c r="A77" s="0" t="s">
-        <x:v>303</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="78" spans="1:268">
-      <x:c r="A78" s="0" t="s">
-        <x:v>273</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="79" spans="1:268">
-      <x:c r="A79" s="0" t="s">
-        <x:v>303</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="81" spans="1:268">
-      <x:c r="A81" s="0" t="s">
-        <x:v>280</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="82" spans="1:268">
-      <x:c r="A82" s="0" t="s">
-        <x:v>304</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="83" spans="1:268">
-      <x:c r="A83" s="0" t="s">
-        <x:v>282</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="84" spans="1:268">
-      <x:c r="A84" s="0" t="s">
-        <x:v>304</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="85" spans="1:268">
-      <x:c r="A85" s="0" t="s">
-        <x:v>283</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="86" spans="1:268">
-      <x:c r="A86" s="0" t="s">
-        <x:v>304</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="87" spans="1:268">
-      <x:c r="A87" s="0" t="s">
-        <x:v>284</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="88" spans="1:268">
-      <x:c r="A88" s="0" t="s">
-        <x:v>304</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="89" spans="1:268">
-      <x:c r="A89" s="0" t="s">
-        <x:v>285</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="90" spans="1:268">
-      <x:c r="A90" s="0" t="s">
-        <x:v>304</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="91" spans="1:268">
-      <x:c r="A91" s="0" t="s">
-        <x:v>277</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="92" spans="1:268">
+    <x:row r="92" spans="1:270">
       <x:c r="A92" s="0" t="s">
-        <x:v>304</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="98" spans="1:268">
+        <x:v>306</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98" spans="1:270">
       <x:c r="A98" s="0" t="s">
-        <x:v>305</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="99" spans="1:268">
+        <x:v>307</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99" spans="1:270">
       <x:c r="A99" s="0" t="s">
-        <x:v>306</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="101" spans="1:268">
+        <x:v>308</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="101" spans="1:270">
       <x:c r="A101" s="0" t="s">
-        <x:v>307</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="102" spans="1:268">
+        <x:v>309</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="102" spans="1:270">
       <x:c r="A102" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>310</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="2">
-    <x:mergeCell ref="A11:JH11"/>
-    <x:mergeCell ref="A14:JH14"/>
+    <x:mergeCell ref="A11:JJ11"/>
+    <x:mergeCell ref="A14:JJ14"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/INTLINE/data/142/STANOR/07129 The Index of wholesale and retail trade.xlsx
+++ b/INTLINE/data/142/STANOR/07129 The Index of wholesale and retail trade.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="311">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="312">
   <x:si>
     <x:t>07129: The Index of wholesale and retail trade, by industry, contents and month</x:t>
   </x:si>
@@ -848,6 +848,9 @@
     <x:t>2022M04</x:t>
   </x:si>
   <x:si>
+    <x:t>2022M05</x:t>
+  </x:si>
+  <x:si>
     <x:t>47_ub Retail sale, except of motor vehicles and motorcycles and automotive fuel</x:t>
   </x:si>
   <x:si>
@@ -890,7 +893,7 @@
     <x:t>Value index, unadjusted:</x:t>
   </x:si>
   <x:si>
-    <x:t>20220530 08:00</x:t>
+    <x:t>20220627 08:00</x:t>
   </x:si>
   <x:si>
     <x:t>Value index, calendar adjusted:</x:t>
@@ -1368,21 +1371,21 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:JJ102"/>
+  <x:dimension ref="A1:JK102"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="270" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="1" max="271" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:270">
+    <x:row r="1" spans="1:271">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:270">
+    <x:row r="3" spans="1:271">
       <x:c r="C3" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -2187,13 +2190,16 @@
       <x:c r="JJ3" s="2" t="s">
         <x:v>268</x:v>
       </x:c>
-    </x:row>
-    <x:row r="4" spans="1:270">
+      <x:c r="JK3" s="2" t="s">
+        <x:v>269</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:271">
       <x:c r="A4" s="2" t="s">
-        <x:v>269</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>270</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="C4" s="3" t="n">
         <x:v>49.2</x:v>
@@ -2999,19 +3005,22 @@
       <x:c r="JJ4" s="3" t="n">
         <x:v>125.1</x:v>
       </x:c>
-    </x:row>
-    <x:row r="5" spans="1:270">
+      <x:c r="JK4" s="3" t="n">
+        <x:v>132.2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:271">
       <x:c r="B5" s="2" t="s">
-        <x:v>271</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="C5" s="3" t="n">
         <x:v>51.7</x:v>
       </x:c>
       <x:c r="D5" s="3" t="n">
-        <x:v>47</x:v>
+        <x:v>46.9</x:v>
       </x:c>
       <x:c r="E5" s="3" t="n">
-        <x:v>51.8</x:v>
+        <x:v>51.9</x:v>
       </x:c>
       <x:c r="F5" s="3" t="n">
         <x:v>51</x:v>
@@ -3020,7 +3029,7 @@
         <x:v>60.1</x:v>
       </x:c>
       <x:c r="H5" s="3" t="n">
-        <x:v>57.1</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="I5" s="3" t="n">
         <x:v>56</x:v>
@@ -3032,7 +3041,7 @@
         <x:v>54.4</x:v>
       </x:c>
       <x:c r="L5" s="3" t="n">
-        <x:v>56.5</x:v>
+        <x:v>56.4</x:v>
       </x:c>
       <x:c r="M5" s="3" t="n">
         <x:v>56.8</x:v>
@@ -3101,7 +3110,7 @@
         <x:v>61.7</x:v>
       </x:c>
       <x:c r="AI5" s="3" t="n">
-        <x:v>59.4</x:v>
+        <x:v>59.5</x:v>
       </x:c>
       <x:c r="AJ5" s="3" t="n">
         <x:v>62.2</x:v>
@@ -3119,10 +3128,10 @@
         <x:v>52.2</x:v>
       </x:c>
       <x:c r="AO5" s="3" t="n">
-        <x:v>58.2</x:v>
+        <x:v>58.3</x:v>
       </x:c>
       <x:c r="AP5" s="3" t="n">
-        <x:v>58.6</x:v>
+        <x:v>58.5</x:v>
       </x:c>
       <x:c r="AQ5" s="3" t="n">
         <x:v>64.7</x:v>
@@ -3185,7 +3194,7 @@
         <x:v>88.6</x:v>
       </x:c>
       <x:c r="BK5" s="3" t="n">
-        <x:v>61.7</x:v>
+        <x:v>61.8</x:v>
       </x:c>
       <x:c r="BL5" s="3" t="n">
         <x:v>56.4</x:v>
@@ -3197,7 +3206,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="BO5" s="3" t="n">
-        <x:v>68.5</x:v>
+        <x:v>68.6</x:v>
       </x:c>
       <x:c r="BP5" s="3" t="n">
         <x:v>71.6</x:v>
@@ -3263,13 +3272,13 @@
         <x:v>63.2</x:v>
       </x:c>
       <x:c r="CK5" s="3" t="n">
-        <x:v>71.6</x:v>
+        <x:v>71.5</x:v>
       </x:c>
       <x:c r="CL5" s="3" t="n">
         <x:v>71.5</x:v>
       </x:c>
       <x:c r="CM5" s="3" t="n">
-        <x:v>79.7</x:v>
+        <x:v>79.8</x:v>
       </x:c>
       <x:c r="CN5" s="3" t="n">
         <x:v>83.1</x:v>
@@ -3293,7 +3302,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="CU5" s="3" t="n">
-        <x:v>73</x:v>
+        <x:v>73.1</x:v>
       </x:c>
       <x:c r="CV5" s="3" t="n">
         <x:v>67.3</x:v>
@@ -3320,7 +3329,7 @@
         <x:v>79.3</x:v>
       </x:c>
       <x:c r="DD5" s="3" t="n">
-        <x:v>80.1</x:v>
+        <x:v>80.2</x:v>
       </x:c>
       <x:c r="DE5" s="3" t="n">
         <x:v>82.3</x:v>
@@ -3353,7 +3362,7 @@
         <x:v>86.8</x:v>
       </x:c>
       <x:c r="DO5" s="3" t="n">
-        <x:v>82</x:v>
+        <x:v>82.1</x:v>
       </x:c>
       <x:c r="DP5" s="3" t="n">
         <x:v>85.3</x:v>
@@ -3401,7 +3410,7 @@
         <x:v>111.3</x:v>
       </x:c>
       <x:c r="EE5" s="3" t="n">
-        <x:v>78.4</x:v>
+        <x:v>78.5</x:v>
       </x:c>
       <x:c r="EF5" s="3" t="n">
         <x:v>72.3</x:v>
@@ -3428,13 +3437,13 @@
         <x:v>86.3</x:v>
       </x:c>
       <x:c r="EN5" s="3" t="n">
-        <x:v>89.3</x:v>
+        <x:v>89.4</x:v>
       </x:c>
       <x:c r="EO5" s="3" t="n">
         <x:v>91.3</x:v>
       </x:c>
       <x:c r="EP5" s="3" t="n">
-        <x:v>114.4</x:v>
+        <x:v>114.3</x:v>
       </x:c>
       <x:c r="EQ5" s="3" t="n">
         <x:v>81.5</x:v>
@@ -3449,7 +3458,7 @@
         <x:v>82.5</x:v>
       </x:c>
       <x:c r="EU5" s="3" t="n">
-        <x:v>95.9</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="EV5" s="3" t="n">
         <x:v>95.6</x:v>
@@ -3485,7 +3494,7 @@
         <x:v>83.5</x:v>
       </x:c>
       <x:c r="FG5" s="3" t="n">
-        <x:v>98.3</x:v>
+        <x:v>98.4</x:v>
       </x:c>
       <x:c r="FH5" s="3" t="n">
         <x:v>98.3</x:v>
@@ -3515,7 +3524,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="FQ5" s="3" t="n">
-        <x:v>89.9</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="FR5" s="3" t="n">
         <x:v>89.5</x:v>
@@ -3533,16 +3542,16 @@
         <x:v>99.5</x:v>
       </x:c>
       <x:c r="FW5" s="3" t="n">
-        <x:v>94.1</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="FX5" s="3" t="n">
         <x:v>96.5</x:v>
       </x:c>
       <x:c r="FY5" s="3" t="n">
-        <x:v>100.3</x:v>
+        <x:v>100.4</x:v>
       </x:c>
       <x:c r="FZ5" s="3" t="n">
-        <x:v>124.7</x:v>
+        <x:v>124.8</x:v>
       </x:c>
       <x:c r="GA5" s="3" t="n">
         <x:v>88.9</x:v>
@@ -3557,10 +3566,10 @@
         <x:v>94.3</x:v>
       </x:c>
       <x:c r="GE5" s="3" t="n">
-        <x:v>103.1</x:v>
+        <x:v>103.2</x:v>
       </x:c>
       <x:c r="GF5" s="3" t="n">
-        <x:v>106.5</x:v>
+        <x:v>106.4</x:v>
       </x:c>
       <x:c r="GG5" s="3" t="n">
         <x:v>101.9</x:v>
@@ -3581,10 +3590,10 @@
         <x:v>128.2</x:v>
       </x:c>
       <x:c r="GM5" s="3" t="n">
-        <x:v>92.7</x:v>
+        <x:v>92.8</x:v>
       </x:c>
       <x:c r="GN5" s="3" t="n">
-        <x:v>85.5</x:v>
+        <x:v>85.4</x:v>
       </x:c>
       <x:c r="GO5" s="3" t="n">
         <x:v>94.9</x:v>
@@ -3641,7 +3650,7 @@
         <x:v>108.9</x:v>
       </x:c>
       <x:c r="HG5" s="3" t="n">
-        <x:v>101.8</x:v>
+        <x:v>101.7</x:v>
       </x:c>
       <x:c r="HH5" s="3" t="n">
         <x:v>104.8</x:v>
@@ -3659,19 +3668,19 @@
         <x:v>89.8</x:v>
       </x:c>
       <x:c r="HM5" s="3" t="n">
-        <x:v>100.6</x:v>
+        <x:v>100.5</x:v>
       </x:c>
       <x:c r="HN5" s="3" t="n">
-        <x:v>100.3</x:v>
+        <x:v>100.4</x:v>
       </x:c>
       <x:c r="HO5" s="3" t="n">
-        <x:v>118.9</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="HP5" s="3" t="n">
-        <x:v>114.6</x:v>
+        <x:v>114.5</x:v>
       </x:c>
       <x:c r="HQ5" s="3" t="n">
-        <x:v>110.1</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="HR5" s="3" t="n">
         <x:v>112.8</x:v>
@@ -3683,13 +3692,13 @@
         <x:v>107.8</x:v>
       </x:c>
       <x:c r="HU5" s="3" t="n">
-        <x:v>117.3</x:v>
+        <x:v>117.2</x:v>
       </x:c>
       <x:c r="HV5" s="3" t="n">
         <x:v>135.7</x:v>
       </x:c>
       <x:c r="HW5" s="3" t="n">
-        <x:v>98.5</x:v>
+        <x:v>98.6</x:v>
       </x:c>
       <x:c r="HX5" s="3" t="n">
         <x:v>91.6</x:v>
@@ -3710,13 +3719,13 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="ID5" s="3" t="n">
-        <x:v>114.7</x:v>
+        <x:v>114.6</x:v>
       </x:c>
       <x:c r="IE5" s="3" t="n">
-        <x:v>108</x:v>
+        <x:v>108.1</x:v>
       </x:c>
       <x:c r="IF5" s="3" t="n">
-        <x:v>109.1</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="IG5" s="3" t="n">
         <x:v>119.3</x:v>
@@ -3737,7 +3746,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="IM5" s="3" t="n">
-        <x:v>134.2</x:v>
+        <x:v>134.3</x:v>
       </x:c>
       <x:c r="IN5" s="3" t="n">
         <x:v>140.3</x:v>
@@ -3746,13 +3755,13 @@
         <x:v>135.6</x:v>
       </x:c>
       <x:c r="IP5" s="3" t="n">
-        <x:v>131.7</x:v>
+        <x:v>131.8</x:v>
       </x:c>
       <x:c r="IQ5" s="3" t="n">
         <x:v>123.5</x:v>
       </x:c>
       <x:c r="IR5" s="3" t="n">
-        <x:v>128</x:v>
+        <x:v>127.9</x:v>
       </x:c>
       <x:c r="IS5" s="3" t="n">
         <x:v>144.3</x:v>
@@ -3761,7 +3770,7 @@
         <x:v>155.5</x:v>
       </x:c>
       <x:c r="IU5" s="3" t="n">
-        <x:v>114.8</x:v>
+        <x:v>114.9</x:v>
       </x:c>
       <x:c r="IV5" s="3" t="n">
         <x:v>109</x:v>
@@ -3773,7 +3782,7 @@
         <x:v>122.5</x:v>
       </x:c>
       <x:c r="IY5" s="3" t="n">
-        <x:v>147.3</x:v>
+        <x:v>147.4</x:v>
       </x:c>
       <x:c r="IZ5" s="3" t="n">
         <x:v>146.4</x:v>
@@ -3785,19 +3794,19 @@
         <x:v>134.6</x:v>
       </x:c>
       <x:c r="JC5" s="3" t="n">
-        <x:v>126.1</x:v>
+        <x:v>126.2</x:v>
       </x:c>
       <x:c r="JD5" s="3" t="n">
         <x:v>129.3</x:v>
       </x:c>
       <x:c r="JE5" s="3" t="n">
-        <x:v>143.5</x:v>
+        <x:v>143.4</x:v>
       </x:c>
       <x:c r="JF5" s="3" t="n">
         <x:v>159.2</x:v>
       </x:c>
       <x:c r="JG5" s="3" t="n">
-        <x:v>118.4</x:v>
+        <x:v>118.5</x:v>
       </x:c>
       <x:c r="JH5" s="3" t="n">
         <x:v>110</x:v>
@@ -3806,12 +3815,15 @@
         <x:v>126.4</x:v>
       </x:c>
       <x:c r="JJ5" s="3" t="n">
-        <x:v>125.3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:270">
+        <x:v>125.2</x:v>
+      </x:c>
+      <x:c r="JK5" s="3" t="n">
+        <x:v>141.4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:271">
       <x:c r="B6" s="2" t="s">
-        <x:v>272</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="C6" s="3" t="n">
         <x:v>55</x:v>
@@ -4617,10 +4629,13 @@
       <x:c r="JJ6" s="3" t="n">
         <x:v>102.9</x:v>
       </x:c>
-    </x:row>
-    <x:row r="7" spans="1:270">
+      <x:c r="JK6" s="3" t="n">
+        <x:v>107.8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:271">
       <x:c r="B7" s="2" t="s">
-        <x:v>273</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="C7" s="3" t="n">
         <x:v>66.2</x:v>
@@ -4635,10 +4650,10 @@
         <x:v>66.3</x:v>
       </x:c>
       <x:c r="G7" s="3" t="n">
-        <x:v>68.5</x:v>
+        <x:v>68.4</x:v>
       </x:c>
       <x:c r="H7" s="3" t="n">
-        <x:v>65.4</x:v>
+        <x:v>65.3</x:v>
       </x:c>
       <x:c r="I7" s="3" t="n">
         <x:v>67</x:v>
@@ -4653,13 +4668,13 @@
         <x:v>66.6</x:v>
       </x:c>
       <x:c r="M7" s="3" t="n">
-        <x:v>65.8</x:v>
+        <x:v>65.9</x:v>
       </x:c>
       <x:c r="N7" s="3" t="n">
         <x:v>68</x:v>
       </x:c>
       <x:c r="O7" s="3" t="n">
-        <x:v>66.6</x:v>
+        <x:v>66.7</x:v>
       </x:c>
       <x:c r="P7" s="3" t="n">
         <x:v>66.9</x:v>
@@ -4671,7 +4686,7 @@
         <x:v>66.5</x:v>
       </x:c>
       <x:c r="S7" s="3" t="n">
-        <x:v>67.2</x:v>
+        <x:v>67.1</x:v>
       </x:c>
       <x:c r="T7" s="3" t="n">
         <x:v>67.5</x:v>
@@ -4701,7 +4716,7 @@
         <x:v>70.2</x:v>
       </x:c>
       <x:c r="AC7" s="3" t="n">
-        <x:v>70.3</x:v>
+        <x:v>70.2</x:v>
       </x:c>
       <x:c r="AD7" s="3" t="n">
         <x:v>70.4</x:v>
@@ -4716,7 +4731,7 @@
         <x:v>69.3</x:v>
       </x:c>
       <x:c r="AH7" s="3" t="n">
-        <x:v>70.3</x:v>
+        <x:v>70.2</x:v>
       </x:c>
       <x:c r="AI7" s="3" t="n">
         <x:v>71.2</x:v>
@@ -4737,7 +4752,7 @@
         <x:v>72.3</x:v>
       </x:c>
       <x:c r="AO7" s="3" t="n">
-        <x:v>72.2</x:v>
+        <x:v>72.3</x:v>
       </x:c>
       <x:c r="AP7" s="3" t="n">
         <x:v>73.4</x:v>
@@ -4773,7 +4788,7 @@
         <x:v>74.2</x:v>
       </x:c>
       <x:c r="BA7" s="3" t="n">
-        <x:v>75.9</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="BB7" s="3" t="n">
         <x:v>75.2</x:v>
@@ -4803,7 +4818,7 @@
         <x:v>76.6</x:v>
       </x:c>
       <x:c r="BK7" s="3" t="n">
-        <x:v>77.1</x:v>
+        <x:v>77.2</x:v>
       </x:c>
       <x:c r="BL7" s="3" t="n">
         <x:v>77.8</x:v>
@@ -4812,7 +4827,7 @@
         <x:v>76.7</x:v>
       </x:c>
       <x:c r="BN7" s="3" t="n">
-        <x:v>77.4</x:v>
+        <x:v>77.5</x:v>
       </x:c>
       <x:c r="BO7" s="3" t="n">
         <x:v>76.1</x:v>
@@ -4821,10 +4836,10 @@
         <x:v>77.9</x:v>
       </x:c>
       <x:c r="BQ7" s="3" t="n">
-        <x:v>78.8</x:v>
+        <x:v>78.7</x:v>
       </x:c>
       <x:c r="BR7" s="3" t="n">
-        <x:v>78.6</x:v>
+        <x:v>78.7</x:v>
       </x:c>
       <x:c r="BS7" s="3" t="n">
         <x:v>78.3</x:v>
@@ -4845,13 +4860,13 @@
         <x:v>80.1</x:v>
       </x:c>
       <x:c r="BY7" s="3" t="n">
-        <x:v>80.7</x:v>
+        <x:v>80.8</x:v>
       </x:c>
       <x:c r="BZ7" s="3" t="n">
         <x:v>80.1</x:v>
       </x:c>
       <x:c r="CA7" s="3" t="n">
-        <x:v>82.3</x:v>
+        <x:v>82.2</x:v>
       </x:c>
       <x:c r="CB7" s="3" t="n">
         <x:v>82.5</x:v>
@@ -4863,13 +4878,13 @@
         <x:v>82.9</x:v>
       </x:c>
       <x:c r="CE7" s="3" t="n">
-        <x:v>83.2</x:v>
+        <x:v>83.1</x:v>
       </x:c>
       <x:c r="CF7" s="3" t="n">
         <x:v>84</x:v>
       </x:c>
       <x:c r="CG7" s="3" t="n">
-        <x:v>84</x:v>
+        <x:v>84.1</x:v>
       </x:c>
       <x:c r="CH7" s="3" t="n">
         <x:v>84.6</x:v>
@@ -4884,7 +4899,7 @@
         <x:v>86.6</x:v>
       </x:c>
       <x:c r="CL7" s="3" t="n">
-        <x:v>87.9</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="CM7" s="3" t="n">
         <x:v>87</x:v>
@@ -4920,7 +4935,7 @@
         <x:v>89.9</x:v>
       </x:c>
       <x:c r="CX7" s="3" t="n">
-        <x:v>89.7</x:v>
+        <x:v>89.8</x:v>
       </x:c>
       <x:c r="CY7" s="3" t="n">
         <x:v>91.5</x:v>
@@ -4935,7 +4950,7 @@
         <x:v>88.8</x:v>
       </x:c>
       <x:c r="DC7" s="3" t="n">
-        <x:v>88.8</x:v>
+        <x:v>88.7</x:v>
       </x:c>
       <x:c r="DD7" s="3" t="n">
         <x:v>87.5</x:v>
@@ -4965,7 +4980,7 @@
         <x:v>89.3</x:v>
       </x:c>
       <x:c r="DM7" s="3" t="n">
-        <x:v>90.3</x:v>
+        <x:v>90.4</x:v>
       </x:c>
       <x:c r="DN7" s="3" t="n">
         <x:v>90.5</x:v>
@@ -4989,10 +5004,10 @@
         <x:v>90.3</x:v>
       </x:c>
       <x:c r="DU7" s="3" t="n">
-        <x:v>90.7</x:v>
+        <x:v>90.6</x:v>
       </x:c>
       <x:c r="DV7" s="3" t="n">
-        <x:v>89.2</x:v>
+        <x:v>89.3</x:v>
       </x:c>
       <x:c r="DW7" s="3" t="n">
         <x:v>90</x:v>
@@ -5025,7 +5040,7 @@
         <x:v>92.4</x:v>
       </x:c>
       <x:c r="EG7" s="3" t="n">
-        <x:v>91.5</x:v>
+        <x:v>91.3</x:v>
       </x:c>
       <x:c r="EH7" s="3" t="n">
         <x:v>92.5</x:v>
@@ -5034,7 +5049,7 @@
         <x:v>92.6</x:v>
       </x:c>
       <x:c r="EJ7" s="3" t="n">
-        <x:v>92.1</x:v>
+        <x:v>92.2</x:v>
       </x:c>
       <x:c r="EK7" s="3" t="n">
         <x:v>92.7</x:v>
@@ -5049,10 +5064,10 @@
         <x:v>94.6</x:v>
       </x:c>
       <x:c r="EO7" s="3" t="n">
-        <x:v>94.2</x:v>
+        <x:v>94.3</x:v>
       </x:c>
       <x:c r="EP7" s="3" t="n">
-        <x:v>94.2</x:v>
+        <x:v>94.1</x:v>
       </x:c>
       <x:c r="EQ7" s="3" t="n">
         <x:v>95.3</x:v>
@@ -5061,7 +5076,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="ES7" s="3" t="n">
-        <x:v>96.3</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="ET7" s="3" t="n">
         <x:v>95.6</x:v>
@@ -5076,7 +5091,7 @@
         <x:v>96.3</x:v>
       </x:c>
       <x:c r="EX7" s="3" t="n">
-        <x:v>96.2</x:v>
+        <x:v>96.3</x:v>
       </x:c>
       <x:c r="EY7" s="3" t="n">
         <x:v>97</x:v>
@@ -5097,7 +5112,7 @@
         <x:v>97.9</x:v>
       </x:c>
       <x:c r="FE7" s="3" t="n">
-        <x:v>97.5</x:v>
+        <x:v>97.3</x:v>
       </x:c>
       <x:c r="FF7" s="3" t="n">
         <x:v>96.1</x:v>
@@ -5109,7 +5124,7 @@
         <x:v>98.1</x:v>
       </x:c>
       <x:c r="FI7" s="3" t="n">
-        <x:v>97.4</x:v>
+        <x:v>97.5</x:v>
       </x:c>
       <x:c r="FJ7" s="3" t="n">
         <x:v>97.8</x:v>
@@ -5133,16 +5148,16 @@
         <x:v>99.5</x:v>
       </x:c>
       <x:c r="FQ7" s="3" t="n">
-        <x:v>100.3</x:v>
+        <x:v>100.1</x:v>
       </x:c>
       <x:c r="FR7" s="3" t="n">
         <x:v>100.6</x:v>
       </x:c>
       <x:c r="FS7" s="3" t="n">
-        <x:v>99.7</x:v>
+        <x:v>99.8</x:v>
       </x:c>
       <x:c r="FT7" s="3" t="n">
-        <x:v>100.5</x:v>
+        <x:v>100.6</x:v>
       </x:c>
       <x:c r="FU7" s="3" t="n">
         <x:v>98.9</x:v>
@@ -5163,19 +5178,19 @@
         <x:v>100.6</x:v>
       </x:c>
       <x:c r="GA7" s="3" t="n">
-        <x:v>100.3</x:v>
+        <x:v>100.2</x:v>
       </x:c>
       <x:c r="GB7" s="3" t="n">
         <x:v>100.9</x:v>
       </x:c>
       <x:c r="GC7" s="3" t="n">
-        <x:v>100.8</x:v>
+        <x:v>100.7</x:v>
       </x:c>
       <x:c r="GD7" s="3" t="n">
         <x:v>103.5</x:v>
       </x:c>
       <x:c r="GE7" s="3" t="n">
-        <x:v>98.8</x:v>
+        <x:v>98.9</x:v>
       </x:c>
       <x:c r="GF7" s="3" t="n">
         <x:v>100</x:v>
@@ -5190,7 +5205,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="GJ7" s="3" t="n">
-        <x:v>101</x:v>
+        <x:v>100.9</x:v>
       </x:c>
       <x:c r="GK7" s="3" t="n">
         <x:v>100.3</x:v>
@@ -5199,19 +5214,19 @@
         <x:v>100.4</x:v>
       </x:c>
       <x:c r="GM7" s="3" t="n">
-        <x:v>101.1</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="GN7" s="3" t="n">
         <x:v>99.6</x:v>
       </x:c>
       <x:c r="GO7" s="3" t="n">
-        <x:v>99.7</x:v>
+        <x:v>99.6</x:v>
       </x:c>
       <x:c r="GP7" s="3" t="n">
-        <x:v>98.9</x:v>
+        <x:v>98.8</x:v>
       </x:c>
       <x:c r="GQ7" s="3" t="n">
-        <x:v>99.9</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="GR7" s="3" t="n">
         <x:v>100</x:v>
@@ -5226,7 +5241,7 @@
         <x:v>99.9</x:v>
       </x:c>
       <x:c r="GV7" s="3" t="n">
-        <x:v>101.1</x:v>
+        <x:v>101.2</x:v>
       </x:c>
       <x:c r="GW7" s="3" t="n">
         <x:v>100.3</x:v>
@@ -5244,10 +5259,10 @@
         <x:v>101.7</x:v>
       </x:c>
       <x:c r="HB7" s="3" t="n">
-        <x:v>101.4</x:v>
+        <x:v>101.3</x:v>
       </x:c>
       <x:c r="HC7" s="3" t="n">
-        <x:v>102.8</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="HD7" s="3" t="n">
         <x:v>103.2</x:v>
@@ -5268,7 +5283,7 @@
         <x:v>103.8</x:v>
       </x:c>
       <x:c r="HJ7" s="3" t="n">
-        <x:v>103.5</x:v>
+        <x:v>103.4</x:v>
       </x:c>
       <x:c r="HK7" s="3" t="n">
         <x:v>102.9</x:v>
@@ -5277,13 +5292,13 @@
         <x:v>103.3</x:v>
       </x:c>
       <x:c r="HM7" s="3" t="n">
-        <x:v>103.3</x:v>
+        <x:v>103.2</x:v>
       </x:c>
       <x:c r="HN7" s="3" t="n">
-        <x:v>104.1</x:v>
+        <x:v>103.9</x:v>
       </x:c>
       <x:c r="HO7" s="3" t="n">
-        <x:v>106.9</x:v>
+        <x:v>107.3</x:v>
       </x:c>
       <x:c r="HP7" s="3" t="n">
         <x:v>103.3</x:v>
@@ -5301,25 +5316,25 @@
         <x:v>103.8</x:v>
       </x:c>
       <x:c r="HU7" s="3" t="n">
-        <x:v>104.7</x:v>
+        <x:v>104.6</x:v>
       </x:c>
       <x:c r="HV7" s="3" t="n">
         <x:v>102.9</x:v>
       </x:c>
       <x:c r="HW7" s="3" t="n">
-        <x:v>104.6</x:v>
+        <x:v>104.5</x:v>
       </x:c>
       <x:c r="HX7" s="3" t="n">
-        <x:v>102.9</x:v>
+        <x:v>102.8</x:v>
       </x:c>
       <x:c r="HY7" s="3" t="n">
         <x:v>103.8</x:v>
       </x:c>
       <x:c r="HZ7" s="3" t="n">
-        <x:v>105.7</x:v>
+        <x:v>105.4</x:v>
       </x:c>
       <x:c r="IA7" s="3" t="n">
-        <x:v>104.4</x:v>
+        <x:v>104.8</x:v>
       </x:c>
       <x:c r="IB7" s="3" t="n">
         <x:v>104</x:v>
@@ -5331,7 +5346,7 @@
         <x:v>104.8</x:v>
       </x:c>
       <x:c r="IE7" s="3" t="n">
-        <x:v>104.7</x:v>
+        <x:v>104.8</x:v>
       </x:c>
       <x:c r="IF7" s="3" t="n">
         <x:v>104.2</x:v>
@@ -5352,10 +5367,10 @@
         <x:v>106.7</x:v>
       </x:c>
       <x:c r="IL7" s="3" t="n">
-        <x:v>113.2</x:v>
+        <x:v>112.7</x:v>
       </x:c>
       <x:c r="IM7" s="3" t="n">
-        <x:v>115</x:v>
+        <x:v>115.7</x:v>
       </x:c>
       <x:c r="IN7" s="3" t="n">
         <x:v>120.6</x:v>
@@ -5376,28 +5391,28 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="IT7" s="3" t="n">
-        <x:v>115</x:v>
+        <x:v>114.9</x:v>
       </x:c>
       <x:c r="IU7" s="3" t="n">
         <x:v>115.4</x:v>
       </x:c>
       <x:c r="IV7" s="3" t="n">
-        <x:v>115.3</x:v>
+        <x:v>115.2</x:v>
       </x:c>
       <x:c r="IW7" s="3" t="n">
-        <x:v>115.8</x:v>
+        <x:v>115.7</x:v>
       </x:c>
       <x:c r="IX7" s="3" t="n">
+        <x:v>116.1</x:v>
+      </x:c>
+      <x:c r="IY7" s="3" t="n">
+        <x:v>123.6</x:v>
+      </x:c>
+      <x:c r="IZ7" s="3" t="n">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="JA7" s="3" t="n">
         <x:v>116.7</x:v>
-      </x:c>
-      <x:c r="IY7" s="3" t="n">
-        <x:v>122.8</x:v>
-      </x:c>
-      <x:c r="IZ7" s="3" t="n">
-        <x:v>121.9</x:v>
-      </x:c>
-      <x:c r="JA7" s="3" t="n">
-        <x:v>116.8</x:v>
       </x:c>
       <x:c r="JB7" s="3" t="n">
         <x:v>112.5</x:v>
@@ -5421,15 +5436,18 @@
         <x:v>111.6</x:v>
       </x:c>
       <x:c r="JI7" s="3" t="n">
-        <x:v>115.2</x:v>
+        <x:v>115.1</x:v>
       </x:c>
       <x:c r="JJ7" s="3" t="n">
-        <x:v>114.2</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:270">
+        <x:v>113.5</x:v>
+      </x:c>
+      <x:c r="JK7" s="3" t="n">
+        <x:v>112.6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:271">
       <x:c r="B8" s="2" t="s">
-        <x:v>274</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="C8" s="3" t="n">
         <x:v>60.8</x:v>
@@ -5462,7 +5480,7 @@
         <x:v>66.4</x:v>
       </x:c>
       <x:c r="M8" s="3" t="n">
-        <x:v>66.6</x:v>
+        <x:v>66.7</x:v>
       </x:c>
       <x:c r="N8" s="3" t="n">
         <x:v>89.3</x:v>
@@ -5480,7 +5498,7 @@
         <x:v>61.2</x:v>
       </x:c>
       <x:c r="S8" s="3" t="n">
-        <x:v>70.1</x:v>
+        <x:v>70.2</x:v>
       </x:c>
       <x:c r="T8" s="3" t="n">
         <x:v>69.5</x:v>
@@ -5522,7 +5540,7 @@
         <x:v>72.6</x:v>
       </x:c>
       <x:c r="AG8" s="3" t="n">
-        <x:v>68.8</x:v>
+        <x:v>68.9</x:v>
       </x:c>
       <x:c r="AH8" s="3" t="n">
         <x:v>71.9</x:v>
@@ -5534,7 +5552,7 @@
         <x:v>71.2</x:v>
       </x:c>
       <x:c r="AK8" s="3" t="n">
-        <x:v>72.7</x:v>
+        <x:v>72.6</x:v>
       </x:c>
       <x:c r="AL8" s="3" t="n">
         <x:v>94.6</x:v>
@@ -5567,7 +5585,7 @@
         <x:v>71.3</x:v>
       </x:c>
       <x:c r="AV8" s="3" t="n">
-        <x:v>74</x:v>
+        <x:v>74.1</x:v>
       </x:c>
       <x:c r="AW8" s="3" t="n">
         <x:v>75.1</x:v>
@@ -5579,22 +5597,22 @@
         <x:v>68.7</x:v>
       </x:c>
       <x:c r="AZ8" s="3" t="n">
-        <x:v>62.2</x:v>
+        <x:v>62.3</x:v>
       </x:c>
       <x:c r="BA8" s="3" t="n">
         <x:v>71.2</x:v>
       </x:c>
       <x:c r="BB8" s="3" t="n">
-        <x:v>69.4</x:v>
+        <x:v>69.3</x:v>
       </x:c>
       <x:c r="BC8" s="3" t="n">
-        <x:v>76.6</x:v>
+        <x:v>76.7</x:v>
       </x:c>
       <x:c r="BD8" s="3" t="n">
         <x:v>79.3</x:v>
       </x:c>
       <x:c r="BE8" s="3" t="n">
-        <x:v>74.3</x:v>
+        <x:v>74.2</x:v>
       </x:c>
       <x:c r="BF8" s="3" t="n">
         <x:v>78.3</x:v>
@@ -5624,7 +5642,7 @@
         <x:v>71.3</x:v>
       </x:c>
       <x:c r="BO8" s="3" t="n">
-        <x:v>78.3</x:v>
+        <x:v>78.4</x:v>
       </x:c>
       <x:c r="BP8" s="3" t="n">
         <x:v>81.4</x:v>
@@ -5699,7 +5717,7 @@
         <x:v>89.5</x:v>
       </x:c>
       <x:c r="CN8" s="3" t="n">
-        <x:v>93.2</x:v>
+        <x:v>93.1</x:v>
       </x:c>
       <x:c r="CO8" s="3" t="n">
         <x:v>88.4</x:v>
@@ -5738,7 +5756,7 @@
         <x:v>94.1</x:v>
       </x:c>
       <x:c r="DA8" s="3" t="n">
-        <x:v>89.7</x:v>
+        <x:v>89.8</x:v>
       </x:c>
       <x:c r="DB8" s="3" t="n">
         <x:v>91.9</x:v>
@@ -5756,7 +5774,7 @@
         <x:v>113.1</x:v>
       </x:c>
       <x:c r="DG8" s="3" t="n">
-        <x:v>81.1</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="DH8" s="3" t="n">
         <x:v>73.3</x:v>
@@ -5804,13 +5822,13 @@
         <x:v>81.5</x:v>
       </x:c>
       <x:c r="DW8" s="3" t="n">
-        <x:v>93.2</x:v>
+        <x:v>93.3</x:v>
       </x:c>
       <x:c r="DX8" s="3" t="n">
         <x:v>94.8</x:v>
       </x:c>
       <x:c r="DY8" s="3" t="n">
-        <x:v>92.7</x:v>
+        <x:v>92.6</x:v>
       </x:c>
       <x:c r="DZ8" s="3" t="n">
         <x:v>93.9</x:v>
@@ -5900,7 +5918,7 @@
         <x:v>123.1</x:v>
       </x:c>
       <x:c r="FC8" s="3" t="n">
-        <x:v>90.2</x:v>
+        <x:v>90.3</x:v>
       </x:c>
       <x:c r="FD8" s="3" t="n">
         <x:v>82.2</x:v>
@@ -5948,7 +5966,7 @@
         <x:v>92.4</x:v>
       </x:c>
       <x:c r="FS8" s="3" t="n">
-        <x:v>104.1</x:v>
+        <x:v>104.2</x:v>
       </x:c>
       <x:c r="FT8" s="3" t="n">
         <x:v>106.4</x:v>
@@ -5972,7 +5990,7 @@
         <x:v>127.6</x:v>
       </x:c>
       <x:c r="GA8" s="3" t="n">
-        <x:v>91.7</x:v>
+        <x:v>91.6</x:v>
       </x:c>
       <x:c r="GB8" s="3" t="n">
         <x:v>84.8</x:v>
@@ -5993,10 +6011,10 @@
         <x:v>101.6</x:v>
       </x:c>
       <x:c r="GH8" s="3" t="n">
-        <x:v>103.4</x:v>
+        <x:v>103.5</x:v>
       </x:c>
       <x:c r="GI8" s="3" t="n">
-        <x:v>96.2</x:v>
+        <x:v>96.3</x:v>
       </x:c>
       <x:c r="GJ8" s="3" t="n">
         <x:v>99.7</x:v>
@@ -6014,7 +6032,7 @@
         <x:v>83.7</x:v>
       </x:c>
       <x:c r="GO8" s="3" t="n">
-        <x:v>93.2</x:v>
+        <x:v>93.1</x:v>
       </x:c>
       <x:c r="GP8" s="3" t="n">
         <x:v>91.1</x:v>
@@ -6041,7 +6059,7 @@
         <x:v>104.2</x:v>
       </x:c>
       <x:c r="GX8" s="3" t="n">
-        <x:v>123.8</x:v>
+        <x:v>123.7</x:v>
       </x:c>
       <x:c r="GY8" s="3" t="n">
         <x:v>91.3</x:v>
@@ -6074,7 +6092,7 @@
         <x:v>100.5</x:v>
       </x:c>
       <x:c r="HI8" s="3" t="n">
-        <x:v>108.7</x:v>
+        <x:v>108.8</x:v>
       </x:c>
       <x:c r="HJ8" s="3" t="n">
         <x:v>129.5</x:v>
@@ -6086,13 +6104,13 @@
         <x:v>86.5</x:v>
       </x:c>
       <x:c r="HM8" s="3" t="n">
-        <x:v>96.7</x:v>
+        <x:v>96.6</x:v>
       </x:c>
       <x:c r="HN8" s="3" t="n">
         <x:v>96.1</x:v>
       </x:c>
       <x:c r="HO8" s="3" t="n">
-        <x:v>113.2</x:v>
+        <x:v>113.3</x:v>
       </x:c>
       <x:c r="HP8" s="3" t="n">
         <x:v>109.5</x:v>
@@ -6110,7 +6128,7 @@
         <x:v>101.8</x:v>
       </x:c>
       <x:c r="HU8" s="3" t="n">
-        <x:v>110.4</x:v>
+        <x:v>110.3</x:v>
       </x:c>
       <x:c r="HV8" s="3" t="n">
         <x:v>128</x:v>
@@ -6134,7 +6152,7 @@
         <x:v>110.4</x:v>
       </x:c>
       <x:c r="IC8" s="3" t="n">
-        <x:v>105.9</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="ID8" s="3" t="n">
         <x:v>108.3</x:v>
@@ -6155,7 +6173,7 @@
         <x:v>93.9</x:v>
       </x:c>
       <x:c r="IJ8" s="3" t="n">
-        <x:v>88.1</x:v>
+        <x:v>88.2</x:v>
       </x:c>
       <x:c r="IK8" s="3" t="n">
         <x:v>100.9</x:v>
@@ -6179,13 +6197,13 @@
         <x:v>110.9</x:v>
       </x:c>
       <x:c r="IR8" s="3" t="n">
-        <x:v>115</x:v>
+        <x:v>114.9</x:v>
       </x:c>
       <x:c r="IS8" s="3" t="n">
         <x:v>130</x:v>
       </x:c>
       <x:c r="IT8" s="3" t="n">
-        <x:v>141.1</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="IU8" s="3" t="n">
         <x:v>104.9</x:v>
@@ -6206,13 +6224,13 @@
         <x:v>129.3</x:v>
       </x:c>
       <x:c r="JA8" s="3" t="n">
-        <x:v>117.4</x:v>
+        <x:v>117.3</x:v>
       </x:c>
       <x:c r="JB8" s="3" t="n">
         <x:v>116.1</x:v>
       </x:c>
       <x:c r="JC8" s="3" t="n">
-        <x:v>108.5</x:v>
+        <x:v>108.6</x:v>
       </x:c>
       <x:c r="JD8" s="3" t="n">
         <x:v>111.8</x:v>
@@ -6233,18 +6251,21 @@
         <x:v>107.4</x:v>
       </x:c>
       <x:c r="JJ8" s="3" t="n">
-        <x:v>105.6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:270">
+        <x:v>105.5</x:v>
+      </x:c>
+      <x:c r="JK8" s="3" t="n">
+        <x:v>117.9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:271">
       <x:c r="B9" s="2" t="s">
-        <x:v>275</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="C9" s="4" t="s">
-        <x:v>276</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
-        <x:v>276</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="E9" s="3" t="n">
         <x:v>66.4</x:v>
@@ -6253,16 +6274,16 @@
         <x:v>66.5</x:v>
       </x:c>
       <x:c r="G9" s="3" t="n">
-        <x:v>67.1</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="H9" s="3" t="n">
         <x:v>66.7</x:v>
       </x:c>
       <x:c r="I9" s="3" t="n">
-        <x:v>67</x:v>
+        <x:v>66.9</x:v>
       </x:c>
       <x:c r="J9" s="3" t="n">
-        <x:v>66.6</x:v>
+        <x:v>66.5</x:v>
       </x:c>
       <x:c r="K9" s="3" t="n">
         <x:v>67</x:v>
@@ -6277,13 +6298,13 @@
         <x:v>66.8</x:v>
       </x:c>
       <x:c r="O9" s="3" t="n">
-        <x:v>66.8</x:v>
+        <x:v>66.9</x:v>
       </x:c>
       <x:c r="P9" s="3" t="n">
         <x:v>67.2</x:v>
       </x:c>
       <x:c r="Q9" s="3" t="n">
-        <x:v>67.1</x:v>
+        <x:v>67.2</x:v>
       </x:c>
       <x:c r="R9" s="3" t="n">
         <x:v>67.1</x:v>
@@ -6292,10 +6313,10 @@
         <x:v>67.2</x:v>
       </x:c>
       <x:c r="T9" s="3" t="n">
-        <x:v>67.1</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="U9" s="3" t="n">
-        <x:v>67.6</x:v>
+        <x:v>67.5</x:v>
       </x:c>
       <x:c r="V9" s="3" t="n">
         <x:v>67.9</x:v>
@@ -6334,10 +6355,10 @@
         <x:v>70.3</x:v>
       </x:c>
       <x:c r="AH9" s="3" t="n">
-        <x:v>70</x:v>
+        <x:v>69.9</x:v>
       </x:c>
       <x:c r="AI9" s="3" t="n">
-        <x:v>70.3</x:v>
+        <x:v>70.2</x:v>
       </x:c>
       <x:c r="AJ9" s="3" t="n">
         <x:v>71</x:v>
@@ -6358,10 +6379,10 @@
         <x:v>72.1</x:v>
       </x:c>
       <x:c r="AP9" s="3" t="n">
-        <x:v>72.6</x:v>
+        <x:v>72.7</x:v>
       </x:c>
       <x:c r="AQ9" s="3" t="n">
-        <x:v>72.6</x:v>
+        <x:v>72.7</x:v>
       </x:c>
       <x:c r="AR9" s="3" t="n">
         <x:v>73</x:v>
@@ -6421,7 +6442,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="BK9" s="3" t="n">
-        <x:v>76.4</x:v>
+        <x:v>76.5</x:v>
       </x:c>
       <x:c r="BL9" s="3" t="n">
         <x:v>77.2</x:v>
@@ -6433,10 +6454,10 @@
         <x:v>77.3</x:v>
       </x:c>
       <x:c r="BO9" s="3" t="n">
-        <x:v>76.7</x:v>
+        <x:v>76.8</x:v>
       </x:c>
       <x:c r="BP9" s="3" t="n">
-        <x:v>77.1</x:v>
+        <x:v>77.2</x:v>
       </x:c>
       <x:c r="BQ9" s="3" t="n">
         <x:v>77.6</x:v>
@@ -6475,7 +6496,7 @@
         <x:v>81.6</x:v>
       </x:c>
       <x:c r="CC9" s="3" t="n">
-        <x:v>82.5</x:v>
+        <x:v>82.4</x:v>
       </x:c>
       <x:c r="CD9" s="3" t="n">
         <x:v>82.7</x:v>
@@ -6484,7 +6505,7 @@
         <x:v>82.9</x:v>
       </x:c>
       <x:c r="CF9" s="3" t="n">
-        <x:v>83.4</x:v>
+        <x:v>83.3</x:v>
       </x:c>
       <x:c r="CG9" s="3" t="n">
         <x:v>83.7</x:v>
@@ -6556,7 +6577,7 @@
         <x:v>88.8</x:v>
       </x:c>
       <x:c r="DD9" s="3" t="n">
-        <x:v>88.4</x:v>
+        <x:v>88.3</x:v>
       </x:c>
       <x:c r="DE9" s="3" t="n">
         <x:v>88</x:v>
@@ -6583,13 +6604,13 @@
         <x:v>88.9</x:v>
       </x:c>
       <x:c r="DM9" s="3" t="n">
-        <x:v>89.4</x:v>
+        <x:v>89.5</x:v>
       </x:c>
       <x:c r="DN9" s="3" t="n">
-        <x:v>90</x:v>
+        <x:v>90.1</x:v>
       </x:c>
       <x:c r="DO9" s="3" t="n">
-        <x:v>90.1</x:v>
+        <x:v>90.2</x:v>
       </x:c>
       <x:c r="DP9" s="3" t="n">
         <x:v>90.4</x:v>
@@ -6643,13 +6664,13 @@
         <x:v>92.1</x:v>
       </x:c>
       <x:c r="EG9" s="3" t="n">
-        <x:v>92</x:v>
+        <x:v>91.9</x:v>
       </x:c>
       <x:c r="EH9" s="3" t="n">
         <x:v>92.1</x:v>
       </x:c>
       <x:c r="EI9" s="3" t="n">
-        <x:v>92.2</x:v>
+        <x:v>92.1</x:v>
       </x:c>
       <x:c r="EJ9" s="3" t="n">
         <x:v>92.4</x:v>
@@ -6679,13 +6700,13 @@
         <x:v>94.8</x:v>
       </x:c>
       <x:c r="ES9" s="3" t="n">
+        <x:v>95.4</x:v>
+      </x:c>
+      <x:c r="ET9" s="3" t="n">
         <x:v>95.5</x:v>
       </x:c>
-      <x:c r="ET9" s="3" t="n">
-        <x:v>95.6</x:v>
-      </x:c>
       <x:c r="EU9" s="3" t="n">
-        <x:v>96.3</x:v>
+        <x:v>96.2</x:v>
       </x:c>
       <x:c r="EV9" s="3" t="n">
         <x:v>96.3</x:v>
@@ -6694,7 +6715,7 @@
         <x:v>96.5</x:v>
       </x:c>
       <x:c r="EX9" s="3" t="n">
-        <x:v>96.2</x:v>
+        <x:v>96.3</x:v>
       </x:c>
       <x:c r="EY9" s="3" t="n">
         <x:v>96.5</x:v>
@@ -6715,13 +6736,13 @@
         <x:v>97.6</x:v>
       </x:c>
       <x:c r="FE9" s="3" t="n">
-        <x:v>97.9</x:v>
+        <x:v>97.8</x:v>
       </x:c>
       <x:c r="FF9" s="3" t="n">
-        <x:v>97.2</x:v>
+        <x:v>97.1</x:v>
       </x:c>
       <x:c r="FG9" s="3" t="n">
-        <x:v>97.6</x:v>
+        <x:v>97.5</x:v>
       </x:c>
       <x:c r="FH9" s="3" t="n">
         <x:v>97.8</x:v>
@@ -6733,7 +6754,7 @@
         <x:v>97.8</x:v>
       </x:c>
       <x:c r="FK9" s="3" t="n">
-        <x:v>97.8</x:v>
+        <x:v>97.9</x:v>
       </x:c>
       <x:c r="FL9" s="3" t="n">
         <x:v>97.9</x:v>
@@ -6763,7 +6784,7 @@
         <x:v>100.3</x:v>
       </x:c>
       <x:c r="FU9" s="3" t="n">
-        <x:v>99.7</x:v>
+        <x:v>99.8</x:v>
       </x:c>
       <x:c r="FV9" s="3" t="n">
         <x:v>99.9</x:v>
@@ -6787,7 +6808,7 @@
         <x:v>100.6</x:v>
       </x:c>
       <x:c r="GC9" s="3" t="n">
-        <x:v>100.7</x:v>
+        <x:v>100.6</x:v>
       </x:c>
       <x:c r="GD9" s="3" t="n">
         <x:v>101.7</x:v>
@@ -6799,7 +6820,7 @@
         <x:v>100.8</x:v>
       </x:c>
       <x:c r="GG9" s="3" t="n">
-        <x:v>99.8</x:v>
+        <x:v>99.9</x:v>
       </x:c>
       <x:c r="GH9" s="3" t="n">
         <x:v>100.5</x:v>
@@ -6808,25 +6829,25 @@
         <x:v>100.5</x:v>
       </x:c>
       <x:c r="GJ9" s="3" t="n">
-        <x:v>100.6</x:v>
+        <x:v>100.5</x:v>
       </x:c>
       <x:c r="GK9" s="3" t="n">
         <x:v>100.4</x:v>
       </x:c>
       <x:c r="GL9" s="3" t="n">
-        <x:v>100.6</x:v>
+        <x:v>100.5</x:v>
       </x:c>
       <x:c r="GM9" s="3" t="n">
         <x:v>100.6</x:v>
       </x:c>
       <x:c r="GN9" s="3" t="n">
-        <x:v>100.4</x:v>
+        <x:v>100.3</x:v>
       </x:c>
       <x:c r="GO9" s="3" t="n">
         <x:v>100.1</x:v>
       </x:c>
       <x:c r="GP9" s="3" t="n">
-        <x:v>99.4</x:v>
+        <x:v>99.3</x:v>
       </x:c>
       <x:c r="GQ9" s="3" t="n">
         <x:v>99.5</x:v>
@@ -6835,7 +6856,7 @@
         <x:v>99.6</x:v>
       </x:c>
       <x:c r="GS9" s="3" t="n">
-        <x:v>99.6</x:v>
+        <x:v>99.7</x:v>
       </x:c>
       <x:c r="GT9" s="3" t="n">
         <x:v>99.5</x:v>
@@ -6847,7 +6868,7 @@
         <x:v>100.2</x:v>
       </x:c>
       <x:c r="GW9" s="3" t="n">
-        <x:v>100.4</x:v>
+        <x:v>100.5</x:v>
       </x:c>
       <x:c r="GX9" s="3" t="n">
         <x:v>100</x:v>
@@ -6871,7 +6892,7 @@
         <x:v>102.5</x:v>
       </x:c>
       <x:c r="HE9" s="3" t="n">
-        <x:v>102.9</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="HF9" s="3" t="n">
         <x:v>102.8</x:v>
@@ -6886,7 +6907,7 @@
         <x:v>102.7</x:v>
       </x:c>
       <x:c r="HJ9" s="3" t="n">
-        <x:v>103.2</x:v>
+        <x:v>103.1</x:v>
       </x:c>
       <x:c r="HK9" s="3" t="n">
         <x:v>103.4</x:v>
@@ -6895,10 +6916,10 @@
         <x:v>103.2</x:v>
       </x:c>
       <x:c r="HM9" s="3" t="n">
-        <x:v>103.2</x:v>
+        <x:v>103.1</x:v>
       </x:c>
       <x:c r="HN9" s="3" t="n">
-        <x:v>103.6</x:v>
+        <x:v>103.5</x:v>
       </x:c>
       <x:c r="HO9" s="3" t="n">
         <x:v>104.8</x:v>
@@ -6907,7 +6928,7 @@
         <x:v>104.8</x:v>
       </x:c>
       <x:c r="HQ9" s="3" t="n">
-        <x:v>104.6</x:v>
+        <x:v>104.7</x:v>
       </x:c>
       <x:c r="HR9" s="3" t="n">
         <x:v>103.7</x:v>
@@ -6919,31 +6940,31 @@
         <x:v>103.9</x:v>
       </x:c>
       <x:c r="HU9" s="3" t="n">
-        <x:v>104.1</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="HV9" s="3" t="n">
         <x:v>103.8</x:v>
       </x:c>
       <x:c r="HW9" s="3" t="n">
-        <x:v>104.1</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="HX9" s="3" t="n">
-        <x:v>103.5</x:v>
+        <x:v>103.4</x:v>
       </x:c>
       <x:c r="HY9" s="3" t="n">
-        <x:v>103.8</x:v>
+        <x:v>103.7</x:v>
       </x:c>
       <x:c r="HZ9" s="3" t="n">
-        <x:v>104.1</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="IA9" s="3" t="n">
-        <x:v>104.6</x:v>
+        <x:v>104.7</x:v>
       </x:c>
       <x:c r="IB9" s="3" t="n">
         <x:v>104.7</x:v>
       </x:c>
       <x:c r="IC9" s="3" t="n">
-        <x:v>104.5</x:v>
+        <x:v>104.6</x:v>
       </x:c>
       <x:c r="ID9" s="3" t="n">
         <x:v>104.6</x:v>
@@ -6970,16 +6991,16 @@
         <x:v>105.2</x:v>
       </x:c>
       <x:c r="IL9" s="3" t="n">
-        <x:v>108.5</x:v>
+        <x:v>108.3</x:v>
       </x:c>
       <x:c r="IM9" s="3" t="n">
-        <x:v>111.6</x:v>
+        <x:v>111.7</x:v>
       </x:c>
       <x:c r="IN9" s="3" t="n">
         <x:v>116.3</x:v>
       </x:c>
       <x:c r="IO9" s="3" t="n">
-        <x:v>118.9</x:v>
+        <x:v>119.2</x:v>
       </x:c>
       <x:c r="IP9" s="3" t="n">
         <x:v>119</x:v>
@@ -6997,25 +7018,25 @@
         <x:v>118.2</x:v>
       </x:c>
       <x:c r="IU9" s="3" t="n">
-        <x:v>117.5</x:v>
+        <x:v>117.4</x:v>
       </x:c>
       <x:c r="IV9" s="3" t="n">
         <x:v>115.2</x:v>
       </x:c>
       <x:c r="IW9" s="3" t="n">
-        <x:v>115.5</x:v>
+        <x:v>115.4</x:v>
       </x:c>
       <x:c r="IX9" s="3" t="n">
-        <x:v>115.9</x:v>
+        <x:v>115.7</x:v>
       </x:c>
       <x:c r="IY9" s="3" t="n">
-        <x:v>118.4</x:v>
+        <x:v>118.5</x:v>
       </x:c>
       <x:c r="IZ9" s="3" t="n">
-        <x:v>120.5</x:v>
+        <x:v>120.6</x:v>
       </x:c>
       <x:c r="JA9" s="3" t="n">
-        <x:v>120.5</x:v>
+        <x:v>120.8</x:v>
       </x:c>
       <x:c r="JB9" s="3" t="n">
         <x:v>117.1</x:v>
@@ -7042,388 +7063,391 @@
         <x:v>113.3</x:v>
       </x:c>
       <x:c r="JJ9" s="3" t="n">
+        <x:v>113.4</x:v>
+      </x:c>
+      <x:c r="JK9" s="3" t="n">
         <x:v>113.7</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:270">
+    <x:row r="11" spans="1:271">
       <x:c r="A11" s="5" t="s">
-        <x:v>277</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:270">
+        <x:v>278</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:271">
       <x:c r="A12" s="0" t="s">
-        <x:v>278</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:270">
+        <x:v>279</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:271">
       <x:c r="A13" s="0" t="s">
-        <x:v>279</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:270">
+        <x:v>280</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:271">
       <x:c r="A14" s="0" t="s">
+        <x:v>281</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:271">
+      <x:c r="A17" s="0" t="s">
+        <x:v>282</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:271">
+      <x:c r="A18" s="0" t="s">
+        <x:v>283</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:271">
+      <x:c r="A19" s="0" t="s">
+        <x:v>284</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:271">
+      <x:c r="A20" s="0" t="s">
+        <x:v>285</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:271">
+      <x:c r="A21" s="0" t="s">
+        <x:v>284</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:271">
+      <x:c r="A22" s="0" t="s">
+        <x:v>286</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:271">
+      <x:c r="A23" s="0" t="s">
+        <x:v>284</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:271">
+      <x:c r="A24" s="0" t="s">
+        <x:v>287</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:271">
+      <x:c r="A25" s="0" t="s">
+        <x:v>284</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:271">
+      <x:c r="A26" s="0" t="s">
+        <x:v>288</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:271">
+      <x:c r="A27" s="0" t="s">
+        <x:v>284</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:271">
+      <x:c r="A28" s="0" t="s">
         <x:v>280</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:270">
-      <x:c r="A17" s="0" t="s">
-        <x:v>281</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:270">
-      <x:c r="A18" s="0" t="s">
-        <x:v>282</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:270">
-      <x:c r="A19" s="0" t="s">
+    <x:row r="29" spans="1:271">
+      <x:c r="A29" s="0" t="s">
+        <x:v>284</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:271">
+      <x:c r="A31" s="0" t="s">
+        <x:v>289</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:271">
+      <x:c r="A32" s="0" t="s">
+        <x:v>290</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:271">
+      <x:c r="A34" s="0" t="s">
+        <x:v>291</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:271">
+      <x:c r="A35" s="0" t="s">
         <x:v>283</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:270">
-      <x:c r="A20" s="0" t="s">
-        <x:v>284</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:270">
-      <x:c r="A21" s="0" t="s">
+    <x:row r="36" spans="1:271">
+      <x:c r="A36" s="0" t="s">
+        <x:v>292</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:271">
+      <x:c r="A37" s="0" t="s">
+        <x:v>293</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:271">
+      <x:c r="A38" s="0" t="s">
+        <x:v>294</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:271">
+      <x:c r="A40" s="0" t="s">
+        <x:v>295</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:271">
+      <x:c r="A41" s="0" t="s">
+        <x:v>296</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:271">
+      <x:c r="A42" s="0" t="s">
+        <x:v>297</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:271">
+      <x:c r="A44" s="0" t="s">
+        <x:v>298</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:271">
+      <x:c r="A45" s="0" t="s">
+        <x:v>299</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:271">
+      <x:c r="A46" s="0" t="s">
+        <x:v>300</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:271">
+      <x:c r="A50" s="0" t="s">
+        <x:v>301</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:271">
+      <x:c r="A52" s="0" t="s">
+        <x:v>302</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:271">
+      <x:c r="A53" s="0" t="s">
         <x:v>283</x:v>
       </x:c>
     </x:row>
-    <x:row r="22" spans="1:270">
-      <x:c r="A22" s="0" t="s">
+    <x:row r="54" spans="1:271">
+      <x:c r="A54" s="0" t="s">
+        <x:v>303</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:271">
+      <x:c r="A55" s="0" t="s">
         <x:v>285</x:v>
       </x:c>
     </x:row>
-    <x:row r="23" spans="1:270">
-      <x:c r="A23" s="0" t="s">
+    <x:row r="56" spans="1:271">
+      <x:c r="A56" s="0" t="s">
+        <x:v>303</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:271">
+      <x:c r="A57" s="0" t="s">
+        <x:v>286</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:271">
+      <x:c r="A58" s="0" t="s">
+        <x:v>303</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:271">
+      <x:c r="A59" s="0" t="s">
+        <x:v>287</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:271">
+      <x:c r="A60" s="0" t="s">
+        <x:v>303</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:271">
+      <x:c r="A61" s="0" t="s">
+        <x:v>288</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:271">
+      <x:c r="A62" s="0" t="s">
+        <x:v>303</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:271">
+      <x:c r="A63" s="0" t="s">
+        <x:v>280</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:271">
+      <x:c r="A64" s="0" t="s">
+        <x:v>303</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:271">
+      <x:c r="A65" s="0" t="s">
+        <x:v>304</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:271">
+      <x:c r="A66" s="0" t="s">
+        <x:v>280</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:271">
+      <x:c r="A67" s="0" t="s">
+        <x:v>305</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68" spans="1:271">
+      <x:c r="A68" s="0" t="s">
+        <x:v>271</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69" spans="1:271">
+      <x:c r="A69" s="0" t="s">
+        <x:v>306</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70" spans="1:271">
+      <x:c r="A70" s="0" t="s">
+        <x:v>272</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71" spans="1:271">
+      <x:c r="A71" s="0" t="s">
+        <x:v>306</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72" spans="1:271">
+      <x:c r="A72" s="0" t="s">
+        <x:v>273</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73" spans="1:271">
+      <x:c r="A73" s="0" t="s">
+        <x:v>306</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74" spans="1:271">
+      <x:c r="A74" s="0" t="s">
+        <x:v>274</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75" spans="1:271">
+      <x:c r="A75" s="0" t="s">
+        <x:v>306</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76" spans="1:271">
+      <x:c r="A76" s="0" t="s">
+        <x:v>275</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77" spans="1:271">
+      <x:c r="A77" s="0" t="s">
+        <x:v>306</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78" spans="1:271">
+      <x:c r="A78" s="0" t="s">
+        <x:v>276</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79" spans="1:271">
+      <x:c r="A79" s="0" t="s">
+        <x:v>306</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81" spans="1:271">
+      <x:c r="A81" s="0" t="s">
         <x:v>283</x:v>
       </x:c>
     </x:row>
-    <x:row r="24" spans="1:270">
-      <x:c r="A24" s="0" t="s">
+    <x:row r="82" spans="1:271">
+      <x:c r="A82" s="0" t="s">
+        <x:v>307</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83" spans="1:271">
+      <x:c r="A83" s="0" t="s">
+        <x:v>285</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84" spans="1:271">
+      <x:c r="A84" s="0" t="s">
+        <x:v>307</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85" spans="1:271">
+      <x:c r="A85" s="0" t="s">
         <x:v>286</x:v>
       </x:c>
     </x:row>
-    <x:row r="25" spans="1:270">
-      <x:c r="A25" s="0" t="s">
-        <x:v>283</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="1:270">
-      <x:c r="A26" s="0" t="s">
+    <x:row r="86" spans="1:271">
+      <x:c r="A86" s="0" t="s">
+        <x:v>307</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87" spans="1:271">
+      <x:c r="A87" s="0" t="s">
         <x:v>287</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:270">
-      <x:c r="A27" s="0" t="s">
-        <x:v>283</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="28" spans="1:270">
-      <x:c r="A28" s="0" t="s">
-        <x:v>279</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="1:270">
-      <x:c r="A29" s="0" t="s">
-        <x:v>283</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="31" spans="1:270">
-      <x:c r="A31" s="0" t="s">
+    <x:row r="88" spans="1:271">
+      <x:c r="A88" s="0" t="s">
+        <x:v>307</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89" spans="1:271">
+      <x:c r="A89" s="0" t="s">
         <x:v>288</x:v>
       </x:c>
     </x:row>
-    <x:row r="32" spans="1:270">
-      <x:c r="A32" s="0" t="s">
-        <x:v>289</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="34" spans="1:270">
-      <x:c r="A34" s="0" t="s">
-        <x:v>290</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="35" spans="1:270">
-      <x:c r="A35" s="0" t="s">
-        <x:v>282</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="36" spans="1:270">
-      <x:c r="A36" s="0" t="s">
-        <x:v>291</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="37" spans="1:270">
-      <x:c r="A37" s="0" t="s">
-        <x:v>292</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="38" spans="1:270">
-      <x:c r="A38" s="0" t="s">
-        <x:v>293</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="40" spans="1:270">
-      <x:c r="A40" s="0" t="s">
-        <x:v>294</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="41" spans="1:270">
-      <x:c r="A41" s="0" t="s">
-        <x:v>295</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="42" spans="1:270">
-      <x:c r="A42" s="0" t="s">
-        <x:v>296</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="44" spans="1:270">
-      <x:c r="A44" s="0" t="s">
-        <x:v>297</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="45" spans="1:270">
-      <x:c r="A45" s="0" t="s">
-        <x:v>298</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="46" spans="1:270">
-      <x:c r="A46" s="0" t="s">
-        <x:v>299</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="50" spans="1:270">
-      <x:c r="A50" s="0" t="s">
-        <x:v>300</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="52" spans="1:270">
-      <x:c r="A52" s="0" t="s">
-        <x:v>301</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="53" spans="1:270">
-      <x:c r="A53" s="0" t="s">
-        <x:v>282</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="54" spans="1:270">
-      <x:c r="A54" s="0" t="s">
-        <x:v>302</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="55" spans="1:270">
-      <x:c r="A55" s="0" t="s">
-        <x:v>284</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="56" spans="1:270">
-      <x:c r="A56" s="0" t="s">
-        <x:v>302</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="57" spans="1:270">
-      <x:c r="A57" s="0" t="s">
-        <x:v>285</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="58" spans="1:270">
-      <x:c r="A58" s="0" t="s">
-        <x:v>302</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="59" spans="1:270">
-      <x:c r="A59" s="0" t="s">
-        <x:v>286</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="60" spans="1:270">
-      <x:c r="A60" s="0" t="s">
-        <x:v>302</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="61" spans="1:270">
-      <x:c r="A61" s="0" t="s">
-        <x:v>287</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="62" spans="1:270">
-      <x:c r="A62" s="0" t="s">
-        <x:v>302</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="63" spans="1:270">
-      <x:c r="A63" s="0" t="s">
-        <x:v>279</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="64" spans="1:270">
-      <x:c r="A64" s="0" t="s">
-        <x:v>302</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="65" spans="1:270">
-      <x:c r="A65" s="0" t="s">
-        <x:v>303</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="66" spans="1:270">
-      <x:c r="A66" s="0" t="s">
-        <x:v>279</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="67" spans="1:270">
-      <x:c r="A67" s="0" t="s">
-        <x:v>304</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="68" spans="1:270">
-      <x:c r="A68" s="0" t="s">
-        <x:v>270</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="69" spans="1:270">
-      <x:c r="A69" s="0" t="s">
-        <x:v>305</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="70" spans="1:270">
-      <x:c r="A70" s="0" t="s">
-        <x:v>271</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="71" spans="1:270">
-      <x:c r="A71" s="0" t="s">
-        <x:v>305</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="72" spans="1:270">
-      <x:c r="A72" s="0" t="s">
-        <x:v>272</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="73" spans="1:270">
-      <x:c r="A73" s="0" t="s">
-        <x:v>305</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="74" spans="1:270">
-      <x:c r="A74" s="0" t="s">
-        <x:v>273</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="75" spans="1:270">
-      <x:c r="A75" s="0" t="s">
-        <x:v>305</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="76" spans="1:270">
-      <x:c r="A76" s="0" t="s">
-        <x:v>274</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="77" spans="1:270">
-      <x:c r="A77" s="0" t="s">
-        <x:v>305</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="78" spans="1:270">
-      <x:c r="A78" s="0" t="s">
-        <x:v>275</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="79" spans="1:270">
-      <x:c r="A79" s="0" t="s">
-        <x:v>305</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="81" spans="1:270">
-      <x:c r="A81" s="0" t="s">
-        <x:v>282</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="82" spans="1:270">
-      <x:c r="A82" s="0" t="s">
-        <x:v>306</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="83" spans="1:270">
-      <x:c r="A83" s="0" t="s">
-        <x:v>284</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="84" spans="1:270">
-      <x:c r="A84" s="0" t="s">
-        <x:v>306</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="85" spans="1:270">
-      <x:c r="A85" s="0" t="s">
-        <x:v>285</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="86" spans="1:270">
-      <x:c r="A86" s="0" t="s">
-        <x:v>306</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="87" spans="1:270">
-      <x:c r="A87" s="0" t="s">
-        <x:v>286</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="88" spans="1:270">
-      <x:c r="A88" s="0" t="s">
-        <x:v>306</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="89" spans="1:270">
-      <x:c r="A89" s="0" t="s">
-        <x:v>287</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="90" spans="1:270">
+    <x:row r="90" spans="1:271">
       <x:c r="A90" s="0" t="s">
-        <x:v>306</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="91" spans="1:270">
+        <x:v>307</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91" spans="1:271">
       <x:c r="A91" s="0" t="s">
-        <x:v>279</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="92" spans="1:270">
+        <x:v>280</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92" spans="1:271">
       <x:c r="A92" s="0" t="s">
-        <x:v>306</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="98" spans="1:270">
+        <x:v>307</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98" spans="1:271">
       <x:c r="A98" s="0" t="s">
-        <x:v>307</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="99" spans="1:270">
+        <x:v>308</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99" spans="1:271">
       <x:c r="A99" s="0" t="s">
-        <x:v>308</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="101" spans="1:270">
+        <x:v>309</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="101" spans="1:271">
       <x:c r="A101" s="0" t="s">
-        <x:v>309</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="102" spans="1:270">
+        <x:v>310</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="102" spans="1:271">
       <x:c r="A102" s="0" t="s">
-        <x:v>310</x:v>
+        <x:v>311</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="2">
-    <x:mergeCell ref="A11:JJ11"/>
-    <x:mergeCell ref="A14:JJ14"/>
+    <x:mergeCell ref="A11:JK11"/>
+    <x:mergeCell ref="A14:JK14"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
